--- a/cbreader2X/nav/advance_nav.xlsx
+++ b/cbreader2X/nav/advance_nav.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F01D74-33D1-4FBC-A0F8-C96699E955AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6778480C-6344-4EBF-BFBD-9E77D5DB84D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="4620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4758" uniqueCount="4622">
   <si>
     <t>歷代藏經補輯</t>
   </si>
@@ -15792,6 +15792,13 @@
   </si>
   <si>
     <t>help/other/Y/index/Y0037-P2C_index.htm 梵巴藏歐文索引</t>
+  </si>
+  <si>
+    <t>LC 呂澂佛學著作集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC0007 經論講要</t>
   </si>
 </sst>
 </file>
@@ -16174,10 +16181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4748"/>
+  <dimension ref="A1:F4750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4716" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4740" sqref="D4740"/>
+    <sheetView tabSelected="1" topLeftCell="A4732" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4749" sqref="B4749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
@@ -39935,64 +39942,74 @@
         <v>4616</v>
       </c>
     </row>
-    <row r="4737" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4737" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4737" s="2" t="s">
         <v>4617</v>
       </c>
     </row>
-    <row r="4738" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4738" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4738" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="4739" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4739" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4739" s="2" t="s">
         <v>4618</v>
       </c>
     </row>
-    <row r="4740" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4740" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4740" s="2" t="s">
         <v>4619</v>
       </c>
     </row>
-    <row r="4741" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4741" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4741" s="2" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="4742" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4742" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4742" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="4743" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4743" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4743" s="3" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="4744" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4744" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C4744" s="2" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="4745" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4745" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4745" s="2" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="4746" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4746" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4746" s="2" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="4747" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4747" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4747" s="2" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="4748" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4748" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4748" s="2" t="s">
         <v>1031</v>
+      </c>
+    </row>
+    <row r="4749" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4749" s="1" t="s">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="4750" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C4750" s="1" t="s">
+        <v>4621</v>
       </c>
     </row>
   </sheetData>

--- a/cbreader2X/nav/advance_nav.xlsx
+++ b/cbreader2X/nav/advance_nav.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6778480C-6344-4EBF-BFBD-9E77D5DB84D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9885743E-E34D-41AF-9346-12318EE10FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15798,7 +15798,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LC0007 經論講要</t>
+    <t>LC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -16183,8 +16184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4732" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4749" sqref="B4749"/>
+    <sheetView tabSelected="1" topLeftCell="A4733" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4753" sqref="D4753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>

--- a/cbreader2X/nav/advance_nav.xlsx
+++ b/cbreader2X/nav/advance_nav.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1341D292-BE5B-4645-ADB8-D864855A9FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C18F89-59C3-4F14-8C4C-09ED857C9C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21516" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4758" uniqueCount="4622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="4648">
   <si>
     <t>歷代藏經補輯</t>
   </si>
@@ -15799,6 +15799,110 @@
       </rPr>
       <t xml:space="preserve"> 大唐西域記解題</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa069 目錄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa070 卷首語</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa071 錄文校勘體例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0078 三自性論</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0079 因相輪抉擇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0080 諸經佛名卷上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0081 御注金剛般若經</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0082 文殊師利所說般若波羅蜜經序偈釋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0083 法華七禮文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0084 照明菩薩經</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0085 佛說佛名經（二十卷本）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0086 敦煌本《壇經》校釋疏義</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0087 敦煌本《壇經》錄校三題</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0088 明初的兩部南藏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa072 徵稿啓事</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa073 《藏外佛教文獻》總目錄（第一輯～第十二輯）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa074 鳴謝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十輯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梵藏典籍新譯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢譯藏文佛典</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>佚典遺珠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛典註疏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛教懺儀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑偽經</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《壇經》整理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究論文</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -16193,10 +16297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4750"/>
+  <dimension ref="A1:F4776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4405" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4423" sqref="D4423"/>
+    <sheetView tabSelected="1" topLeftCell="A4097" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4124" sqref="D4124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
@@ -36695,3332 +36799,3474 @@
         <v>598</v>
       </c>
     </row>
-    <row r="4097" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4097" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4097" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="4098" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4098" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4098" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="4099" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4099" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4099" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="4100" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4100" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4100" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="4101" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4101" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4101" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="4102" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4102" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4102" s="4" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="4103" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4103" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4103" s="4" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="4104" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4104" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4104" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="4105" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4105" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4105" s="4" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="4106" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4106" s="1" t="s">
+    <row r="4106" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4106" s="3" t="s">
+        <v>4639</v>
+      </c>
+      <c r="D4106" s="4"/>
+    </row>
+    <row r="4107" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4107" s="4" t="s">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="4108" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4108" s="4" t="s">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="4109" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4109" s="4" t="s">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="4110" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4110" s="4" t="s">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="4111" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4111" s="4"/>
+      <c r="E4111" s="3" t="s">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="4112" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4112" s="4" t="s">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="4113" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4113" s="4"/>
+      <c r="E4113" s="3" t="s">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="4114" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4114" s="4" t="s">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="4115" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4115" s="4"/>
+      <c r="E4115" s="3" t="s">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="4116" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4116" s="4" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="4117" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4117" s="4"/>
+      <c r="E4117" s="3" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="4118" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4118" s="4"/>
+      <c r="E4118" s="3" t="s">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="4119" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4119" s="4" t="s">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="4120" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4120" s="4"/>
+      <c r="E4120" s="3" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="4121" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4121" s="4" t="s">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="4122" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4122" s="4"/>
+      <c r="E4122" s="3" t="s">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="4123" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4123" s="4"/>
+      <c r="E4123" s="3" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="4124" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4124" s="4" t="s">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="4125" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4125" s="4"/>
+      <c r="E4125" s="3" t="s">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="4126" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4126" s="4" t="s">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="4127" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4127" s="4"/>
+      <c r="E4127" s="3" t="s">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="4128" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4128" s="4"/>
+      <c r="E4128" s="3" t="s">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="4129" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4129" s="4" t="s">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="4130" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4130" s="4" t="s">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="4131" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4131" s="4" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="4132" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4132" s="1" t="s">
         <v>4534</v>
       </c>
     </row>
-    <row r="4107" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4107" s="2" t="s">
+    <row r="4133" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4133" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="4108" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4108" s="2" t="s">
+    <row r="4134" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4134" s="2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="4109" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4109" s="2" t="s">
+    <row r="4135" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4135" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="4110" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4110" s="2" t="s">
+    <row r="4136" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4136" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="4111" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4111" s="3" t="s">
+    <row r="4137" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4137" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="4112" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4112" s="1" t="s">
+    <row r="4138" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4138" s="1" t="s">
         <v>4535</v>
       </c>
     </row>
-    <row r="4113" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4113" s="2" t="s">
+    <row r="4139" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4139" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="4114" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4114" s="3" t="s">
+    <row r="4140" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4140" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="4115" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4115" s="3" t="s">
+    <row r="4141" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4141" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="4116" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4116" s="3" t="s">
+    <row r="4142" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4142" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="4117" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4117" s="3" t="s">
+    <row r="4143" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4143" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="4118" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4118" s="3" t="s">
+    <row r="4144" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4144" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="4119" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4119" s="3" t="s">
+    <row r="4145" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4145" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="4120" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4120" s="3" t="s">
+    <row r="4146" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4146" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="4121" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4121" s="3" t="s">
+    <row r="4147" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4147" s="3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="4122" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4122" s="3" t="s">
+    <row r="4148" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4148" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="4123" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4123" s="3" t="s">
+    <row r="4149" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4149" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="4124" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4124" s="3" t="s">
+    <row r="4150" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4150" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="4125" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4125" s="3" t="s">
+    <row r="4151" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4151" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="4126" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4126" s="3" t="s">
+    <row r="4152" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4152" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="4127" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4127" s="3" t="s">
+    <row r="4153" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4153" s="3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="4128" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4128" s="3" t="s">
+    <row r="4154" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4154" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="4129" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4129" s="3" t="s">
+    <row r="4155" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4155" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="4130" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4130" s="3" t="s">
+    <row r="4156" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4156" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="4131" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4131" s="3" t="s">
+    <row r="4157" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4157" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="4132" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4132" s="3" t="s">
+    <row r="4158" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4158" s="3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="4133" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4133" s="3" t="s">
+    <row r="4159" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4159" s="3" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="4134" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4134" s="3" t="s">
+    <row r="4160" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4160" s="3" t="s">
         <v>625</v>
-      </c>
-    </row>
-    <row r="4135" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4135" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="4136" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4136" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="4137" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4137" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4138" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4138" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="4139" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4139" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4140" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4140" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="4141" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4141" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="4142" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4142" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="4143" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4143" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="4144" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4144" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="4145" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4145" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4146" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4146" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="4147" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4147" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="4148" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4148" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="4149" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4149" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="4150" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4150" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="4151" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4151" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="4152" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4152" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="4153" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4153" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="4154" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4154" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="4155" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4155" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="4156" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4156" s="3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="4157" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4157" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="4158" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4158" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="4159" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4159" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="4160" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4160" s="3" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="4161" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4161" s="3" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4162" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4162" s="3" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4163" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4163" s="3" t="s">
-        <v>654</v>
+      <c r="E4163" s="3" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="4164" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4164" s="3" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4165" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4165" s="3" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4166" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4166" s="3" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4167" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4167" s="3" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4168" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4168" s="3" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4169" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4169" s="3" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4170" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4170" s="3" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4171" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4171" s="3" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4172" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4172" s="3" t="s">
-        <v>663</v>
+      <c r="E4172" s="3" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="4173" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4173" s="3" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4174" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4174" s="3" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4175" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4175" s="3" t="s">
-        <v>666</v>
+      <c r="D4175" s="3" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="4176" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4176" s="3" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4177" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4177" s="3" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4178" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4178" s="3" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4179" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4179" s="3" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4180" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4180" s="3" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4181" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4181" s="3" t="s">
-        <v>672</v>
+      <c r="E4181" s="3" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="4182" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4182" s="3" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4183" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4183" s="3" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4184" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4184" s="3" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4185" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4185" s="3" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4186" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4186" s="3" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4187" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4187" s="3" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4188" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4188" s="3" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4189" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4189" s="3" t="s">
-        <v>680</v>
+      <c r="D4189" s="3" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="4190" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4190" s="3" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4191" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4191" s="3" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4192" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E4192" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4193" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4193" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="4194" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4194" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4195" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4195" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4196" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4196" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4197" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4197" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4198" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4198" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="4199" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4199" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4200" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4200" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4201" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4201" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4202" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4202" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4203" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4203" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4204" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4204" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4205" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4205" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4206" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4206" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4207" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4207" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4208" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4208" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4209" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4209" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4210" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4210" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4211" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4211" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4212" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4212" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4213" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4213" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4214" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4214" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="4215" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4215" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4216" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4216" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4217" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4217" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4218" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4218" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="4193" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4193" s="3" t="s">
+    <row r="4219" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4219" s="3" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="4194" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4194" s="3" t="s">
+    <row r="4220" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4220" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="4195" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4195" s="3" t="s">
+    <row r="4221" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4221" s="3" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="4196" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4196" s="3" t="s">
+    <row r="4222" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4222" s="3" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="4197" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4197" s="3" t="s">
+    <row r="4223" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4223" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="4198" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4198" s="3" t="s">
+    <row r="4224" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4224" s="3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="4199" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4199" s="3" t="s">
+    <row r="4225" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4225" s="3" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="4200" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4200" s="3" t="s">
+    <row r="4226" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4226" s="3" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="4201" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4201" s="3" t="s">
+    <row r="4227" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4227" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="4202" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4202" s="3" t="s">
+    <row r="4228" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4228" s="3" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="4203" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4203" s="3" t="s">
+    <row r="4229" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4229" s="3" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="4204" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4204" s="3" t="s">
+    <row r="4230" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4230" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="4205" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4205" s="3" t="s">
+    <row r="4231" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4231" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="4206" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4206" s="3" t="s">
+    <row r="4232" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4232" s="3" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="4207" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4207" s="3" t="s">
+    <row r="4233" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4233" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="4208" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4208" s="3" t="s">
+    <row r="4234" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4234" s="3" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="4209" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4209" s="3" t="s">
+    <row r="4235" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4235" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="4210" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4210" s="3" t="s">
+    <row r="4236" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4236" s="3" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="4211" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4211" s="3" t="s">
+    <row r="4237" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4237" s="3" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="4212" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4212" s="3" t="s">
+    <row r="4238" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4238" s="3" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="4213" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4213" s="3" t="s">
+    <row r="4239" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4239" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="4214" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4214" s="3" t="s">
+    <row r="4240" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4240" s="3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="4215" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4215" s="3" t="s">
+    <row r="4241" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4241" s="3" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="4216" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4216" s="3" t="s">
+    <row r="4242" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4242" s="3" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="4217" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4217" s="3" t="s">
+    <row r="4243" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4243" s="3" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="4218" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4218" s="3" t="s">
+    <row r="4244" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4244" s="3" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="4219" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4219" s="3" t="s">
+    <row r="4245" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4245" s="3" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="4220" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4220" s="3" t="s">
+    <row r="4246" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4246" s="3" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="4221" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4221" s="3" t="s">
+    <row r="4247" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4247" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="4222" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4222" s="3" t="s">
+    <row r="4248" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4248" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="4223" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4223" s="3" t="s">
+    <row r="4249" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4249" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="4224" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4224" s="3" t="s">
+    <row r="4250" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4250" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="4225" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4225" s="3" t="s">
+    <row r="4251" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4251" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="4226" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4226" s="3" t="s">
+    <row r="4252" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4252" s="3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="4227" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4227" s="3" t="s">
+    <row r="4253" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4253" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="4228" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4228" s="3" t="s">
+    <row r="4254" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4254" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="4229" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4229" s="3" t="s">
+    <row r="4255" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4255" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="4230" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4230" s="3" t="s">
+    <row r="4256" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4256" s="3" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="4231" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4231" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="4232" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4232" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="4233" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4233" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="4234" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4234" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4235" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4235" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="4236" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4236" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="4237" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4237" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4238" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4238" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="4239" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4239" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="4240" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4240" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="4241" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4241" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="4242" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4242" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4243" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4243" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="4244" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4244" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4245" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4245" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="4246" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4246" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="4247" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4247" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="4248" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4248" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="4249" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4249" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="4250" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4250" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4251" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4251" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="4252" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4252" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="4253" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4253" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="4254" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4254" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="4255" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4255" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="4256" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4256" s="3" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="4257" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4257" s="3" t="s">
-        <v>655</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4258" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4258" s="3" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4259" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4259" s="3" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4260" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4260" s="3" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4261" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4261" s="3" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4262" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4262" s="3" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4263" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4263" s="3" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4264" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4264" s="3" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4265" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4265" s="3" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4266" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4266" s="3" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4267" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4267" s="3" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4268" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4268" s="3" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4269" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4269" s="3" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4270" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4270" s="3" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4271" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4271" s="3" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4272" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4272" s="3" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4273" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4273" s="3" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4274" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4274" s="3" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4275" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4275" s="3" t="s">
-        <v>673</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4276" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4276" s="3" t="s">
-        <v>674</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4277" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4277" s="3" t="s">
-        <v>675</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4278" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4278" s="3" t="s">
-        <v>676</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4279" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4279" s="3" t="s">
-        <v>677</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4280" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4280" s="3" t="s">
-        <v>678</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4281" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4281" s="3" t="s">
-        <v>679</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4282" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4282" s="3" t="s">
-        <v>680</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4283" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4283" s="3" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4284" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4284" s="3" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4285" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4285" s="3" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4286" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4286" s="3" t="s">
-        <v>683</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4287" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4287" s="3" t="s">
-        <v>684</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4288" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4288" s="3" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4289" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4289" s="3" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4290" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4290" s="3" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4291" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4291" s="3" t="s">
-        <v>687</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4292" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4292" s="3" t="s">
-        <v>688</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4293" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4293" s="3" t="s">
-        <v>689</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4294" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4294" s="3" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4295" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4295" s="3" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4296" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4296" s="3" t="s">
-        <v>691</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4297" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4297" s="3" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4298" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4298" s="3" t="s">
-        <v>693</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4299" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4299" s="3" t="s">
-        <v>694</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4300" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4300" s="3" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4301" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4301" s="3" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4302" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4302" s="3" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4303" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4303" s="3" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4304" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4304" s="3" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4305" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4305" s="3" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4306" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4306" s="3" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4307" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4307" s="3" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4308" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4308" s="3" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4309" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4309" s="3" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4310" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4310" s="3" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4311" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4311" s="3" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4312" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4312" s="3" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4313" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4313" s="3" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4314" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4314" s="3" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4315" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4315" s="3" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4316" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4316" s="3" t="s">
-        <v>708</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4317" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4317" s="3" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4318" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4318" s="3" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4319" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4319" s="3" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4320" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4320" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4321" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4321" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4322" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4322" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="4323" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4323" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4324" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4324" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4325" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4325" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4326" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4326" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4327" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4327" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4328" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4328" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4329" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4329" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4330" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4330" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="4331" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4331" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4332" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4332" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4333" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4333" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4334" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4334" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4335" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4335" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4336" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4336" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4337" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4337" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="4338" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4338" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="4339" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4339" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4340" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4340" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="4341" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4341" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4342" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4342" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4343" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4343" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4344" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4344" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="4345" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4345" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4346" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4346" s="3" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="4321" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4321" s="1" t="s">
+    <row r="4347" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4347" s="1" t="s">
         <v>4536</v>
       </c>
     </row>
-    <row r="4322" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B4322" s="2"/>
-      <c r="C4322" s="2" t="s">
+    <row r="4348" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B4348" s="2"/>
+      <c r="C4348" s="2" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="4323" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B4323" s="2"/>
-      <c r="C4323" s="2" t="s">
+    <row r="4349" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B4349" s="2"/>
+      <c r="C4349" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="4324" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4324" s="2" t="s">
+    <row r="4350" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4350" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="4325" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4325" s="5" t="s">
+    <row r="4351" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4351" s="5" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="4326" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4326" s="2" t="s">
+    <row r="4352" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4352" s="2" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="4327" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4327" s="2"/>
-      <c r="D4327" s="2" t="s">
+    <row r="4353" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4353" s="2"/>
+      <c r="D4353" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="4328" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4328" s="5" t="s">
+    <row r="4354" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4354" s="5" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="4329" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4329" s="3" t="s">
+    <row r="4355" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4355" s="3" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="4330" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4330" s="2" t="s">
+    <row r="4356" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4356" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="4331" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4331" s="3" t="s">
+    <row r="4357" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4357" s="3" t="s">
         <v>721</v>
-      </c>
-    </row>
-    <row r="4332" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4332" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="4333" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4333" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="4334" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4334" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="4335" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4335" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="4336" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4336" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="4337" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4337" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="4338" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4338" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="4339" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4339" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="4340" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4340" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="4341" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4341" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="4342" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4342" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="4343" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4343" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="4344" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4344" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="4345" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4345" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="4346" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4346" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="4347" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4347" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="4348" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4348" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="4349" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4349" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="4350" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4350" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="4351" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4351" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="4352" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4352" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="4353" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4353" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="4354" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4354" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="4355" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4355" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="4356" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4356" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="4357" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4357" s="2" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="4358" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4358" s="3" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4359" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4359" s="3" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4360" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4360" s="3" t="s">
-        <v>750</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4361" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4361" s="3" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4362" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4362" s="3" t="s">
-        <v>752</v>
+      <c r="D4362" s="3" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="4363" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4363" s="2" t="s">
-        <v>753</v>
+      <c r="D4363" s="3" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="4364" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4364" s="3" t="s">
-        <v>754</v>
+      <c r="C4364" s="3" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="4365" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4365" s="3" t="s">
-        <v>755</v>
+      <c r="D4365" s="2" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="4366" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4366" s="3" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4367" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4367" s="3" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4368" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4368" s="3" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4369" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4369" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4370" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4370" s="3" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4371" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4371" s="3" t="s">
-        <v>761</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4372" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4372" s="3" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4373" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4373" s="3" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4374" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4374" s="3" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4375" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4375" s="3" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4376" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4376" s="3" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4377" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4377" s="3" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4378" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4378" s="3" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4379" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4379" s="3" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4380" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4380" s="3" t="s">
-        <v>770</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4381" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4381" s="3" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4382" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C4382" s="3" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4383" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4383" s="2" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4384" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4384" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="4385" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="4385" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4385" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="4386" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="4386" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4386" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="4387" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4387" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4387" s="3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="4388" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4388" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="4389" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4389" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="4390" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="4388" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4388" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="4389" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4389" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="4390" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4390" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="4391" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4391" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4391" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="4392" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4392" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4392" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="4393" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="4393" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4393" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="4394" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="4394" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4394" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="4395" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="4395" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4395" s="3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="4396" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="4396" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4396" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="4397" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="4397" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4397" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="4398" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4398" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4398" s="3" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="4399" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="4399" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4399" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="4400" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4400" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4400" s="3" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4401" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4401" s="3" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4402" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4402" s="3" t="s">
-        <v>792</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4403" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4403" s="3" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4404" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4404" s="3" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4405" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4405" s="3" t="s">
-        <v>795</v>
+      <c r="D4405" s="3" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="4406" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4406" s="2" t="s">
-        <v>796</v>
+      <c r="D4406" s="3" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="4407" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4407" s="3" t="s">
-        <v>797</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4408" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4408" s="3" t="s">
-        <v>798</v>
+      <c r="C4408" s="3" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="4409" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4409" s="3" t="s">
-        <v>799</v>
+      <c r="D4409" s="2" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="4410" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4410" s="3" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4411" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4411" s="3" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4412" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4412" s="3" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4413" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4413" s="3" t="s">
-        <v>803</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4414" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4414" s="3" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4415" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4415" s="3" t="s">
-        <v>805</v>
+      <c r="D4415" s="3" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="4416" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4416" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="4417" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4416" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="4417" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4417" s="3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="4418" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4418" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4418" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="4419" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4419" s="3" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="4420" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4420" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="4421" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4419" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4419" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4420" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4420" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4421" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4421" s="3" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="4422" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4422" s="6" t="s">
-        <v>4621</v>
-      </c>
-    </row>
-    <row r="4423" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="4422" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4422" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="4423" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4423" s="3" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="4424" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4424" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="4425" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4425" s="2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="4426" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="4424" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4424" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="4425" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4425" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="4426" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4426" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="4427" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4427" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4427" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="4428" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4428" s="2" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="4429" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4429" s="2"/>
-      <c r="E4429" s="2" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="4430" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="4428" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4428" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="4429" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4429" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="4430" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4430" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="4431" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4431" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="4432" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4432" s="3" t="s">
-        <v>819</v>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4431" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4431" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="4432" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4432" s="2" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="4433" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4433" s="3" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4434" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4434" s="2" t="s">
-        <v>821</v>
+      <c r="D4434" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="4435" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4435" s="2" t="s">
-        <v>822</v>
+      <c r="D4435" s="3" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="4436" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4436" s="2" t="s">
-        <v>823</v>
+      <c r="D4436" s="3" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="4437" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4437" s="5" t="s">
-        <v>824</v>
+      <c r="D4437" s="3" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="4438" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4438" s="3" t="s">
-        <v>825</v>
+      <c r="D4438" s="3" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="4439" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4439" s="2" t="s">
-        <v>826</v>
+      <c r="D4439" s="3" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="4440" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4440" s="3" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4441" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4441" s="3" t="s">
-        <v>828</v>
+      <c r="C4441" s="3" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="4442" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4442" s="3" t="s">
-        <v>829</v>
+      <c r="D4442" s="2" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="4443" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4443" s="3" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4444" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4444" s="3" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4445" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4445" s="3" t="s">
-        <v>832</v>
+      <c r="C4445" s="3" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="4446" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4446" s="3" t="s">
-        <v>833</v>
+      <c r="D4446" s="2" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="4447" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4447" s="2" t="s">
-        <v>834</v>
+      <c r="D4447" s="3" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="4448" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4448" s="3" t="s">
-        <v>835</v>
+      <c r="D4448" s="6" t="s">
+        <v>4621</v>
       </c>
     </row>
     <row r="4449" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4449" s="3" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4450" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4450" s="3" t="s">
-        <v>837</v>
+      <c r="C4450" s="3" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="4451" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4451" s="3" t="s">
-        <v>838</v>
+      <c r="D4451" s="2" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="4452" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4452" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="4453" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4453" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="4454" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4454" s="2" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="4455" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4455" s="2"/>
+      <c r="E4455" s="2" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="4456" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4456" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="4457" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4457" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="4458" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4458" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="4459" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4459" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4460" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4460" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="4461" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4461" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="4462" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4462" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="4463" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4463" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="4464" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4464" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="4465" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4465" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="4466" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4466" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="4467" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4467" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="4468" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4468" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="4469" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4469" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="4470" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4470" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4471" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4471" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="4472" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4472" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4473" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4473" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="4474" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4474" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="4475" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4475" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="4476" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4476" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="4477" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4477" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4478" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4478" s="3" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="4453" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4453" s="2" t="s">
+    <row r="4479" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4479" s="2" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="4454" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4454" s="2" t="s">
+    <row r="4480" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4480" s="2" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="4455" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4455" s="3" t="s">
+    <row r="4481" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4481" s="3" t="s">
         <v>840</v>
-      </c>
-    </row>
-    <row r="4456" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4456" s="2" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="4457" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4457" s="2" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="4458" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4458" s="3" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="4459" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4459" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="4460" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4460" s="2" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="4461" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4461" s="3" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="4462" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4462" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="4463" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4463" s="2" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="4464" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4464" s="2" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="4465" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4465" s="2"/>
-      <c r="E4465" s="2" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="4466" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4466" s="2" t="s">
-        <v>2201</v>
-      </c>
-      <c r="E4466" s="2"/>
-    </row>
-    <row r="4467" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4467" s="2"/>
-      <c r="E4467" s="2" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="4468" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4468" s="2" t="s">
-        <v>2203</v>
-      </c>
-      <c r="E4468" s="2"/>
-    </row>
-    <row r="4469" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4469" s="2"/>
-      <c r="E4469" s="2" t="s">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="4470" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4470" s="2" t="s">
-        <v>2205</v>
-      </c>
-      <c r="E4470" s="2"/>
-    </row>
-    <row r="4471" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4471" s="2"/>
-      <c r="E4471" s="2" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="4472" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4472" s="2" t="s">
-        <v>2207</v>
-      </c>
-      <c r="E4472" s="2"/>
-    </row>
-    <row r="4473" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4473" s="2"/>
-      <c r="E4473" s="2" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="4474" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4474" s="3" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="4475" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4475" s="2" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="4476" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4476" s="2" t="s">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="4477" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4477" s="2"/>
-      <c r="E4477" s="2" t="s">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="4478" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4478" s="2" t="s">
-        <v>2211</v>
-      </c>
-    </row>
-    <row r="4479" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4479" s="2"/>
-      <c r="E4479" s="2" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="4480" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4480" s="2" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="4481" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4481" s="2"/>
-      <c r="E4481" s="2" t="s">
-        <v>2214</v>
       </c>
     </row>
     <row r="4482" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4482" s="2" t="s">
-        <v>2215</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="4483" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4483" s="2"/>
       <c r="E4483" s="2" t="s">
-        <v>2216</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="4484" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4484" s="2" t="s">
-        <v>2217</v>
+      <c r="C4484" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="4485" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4485" s="2"/>
-      <c r="E4485" s="2" t="s">
-        <v>2218</v>
+      <c r="D4485" s="2" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="4486" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4486" s="2" t="s">
-        <v>2219</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4487" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4487" s="2"/>
-      <c r="E4487" s="2" t="s">
-        <v>2220</v>
+      <c r="D4487" s="3" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="4488" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4488" s="2" t="s">
-        <v>2221</v>
+      <c r="C4488" s="2" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="4489" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4489" s="2"/>
-      <c r="E4489" s="2" t="s">
-        <v>2222</v>
+      <c r="D4489" s="2" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="4490" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4490" s="3" t="s">
-        <v>849</v>
+      <c r="D4490" s="2" t="s">
+        <v>2199</v>
       </c>
     </row>
     <row r="4491" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4491" s="3" t="s">
-        <v>850</v>
+      <c r="D4491" s="2"/>
+      <c r="E4491" s="2" t="s">
+        <v>2200</v>
       </c>
     </row>
     <row r="4492" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4492" s="2" t="s">
-        <v>851</v>
-      </c>
+        <v>2201</v>
+      </c>
+      <c r="E4492" s="2"/>
     </row>
     <row r="4493" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4493" s="3" t="s">
-        <v>852</v>
+      <c r="D4493" s="2"/>
+      <c r="E4493" s="2" t="s">
+        <v>2202</v>
       </c>
     </row>
     <row r="4494" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4494" s="3" t="s">
-        <v>853</v>
-      </c>
+      <c r="D4494" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E4494" s="2"/>
     </row>
     <row r="4495" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4495" s="3" t="s">
-        <v>854</v>
+      <c r="D4495" s="2"/>
+      <c r="E4495" s="2" t="s">
+        <v>2204</v>
       </c>
     </row>
     <row r="4496" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4496" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="4497" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4497" s="2" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="4498" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4496" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E4496" s="2"/>
+    </row>
+    <row r="4497" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4497" s="2"/>
+      <c r="E4497" s="2" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="4498" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4498" s="2" t="s">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="4499" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2207</v>
+      </c>
+      <c r="E4498" s="2"/>
+    </row>
+    <row r="4499" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4499" s="2"/>
       <c r="E4499" s="2" t="s">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="4500" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4500" s="2" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="4501" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4501" s="2"/>
-      <c r="E4501" s="2" t="s">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="4502" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="4500" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4500" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4501" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4501" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="4502" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4502" s="2" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="4503" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="4503" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4503" s="2"/>
       <c r="E4503" s="2" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="4504" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="4504" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4504" s="2" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="4505" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="4505" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4505" s="2"/>
       <c r="E4505" s="2" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="4506" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="4506" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4506" s="2" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="4507" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="4507" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4507" s="2"/>
       <c r="E4507" s="2" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="4508" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="4508" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4508" s="2" t="s">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="4509" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="4509" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4509" s="2"/>
       <c r="E4509" s="2" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="4510" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="4510" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4510" s="2" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="4511" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="4511" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4511" s="2"/>
       <c r="E4511" s="2" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="4512" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="4512" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4512" s="2" t="s">
-        <v>2237</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="4513" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4513" s="2"/>
       <c r="E4513" s="2" t="s">
-        <v>2238</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="4514" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4514" s="2" t="s">
-        <v>2239</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="4515" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4515" s="2"/>
       <c r="E4515" s="2" t="s">
-        <v>2240</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="4516" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4516" s="2" t="s">
-        <v>2241</v>
+      <c r="D4516" s="3" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="4517" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4517" s="2"/>
-      <c r="E4517" s="2" t="s">
-        <v>2242</v>
+      <c r="C4517" s="3" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="4518" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4518" s="2" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4519" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4519" s="2"/>
-      <c r="E4519" s="2" t="s">
-        <v>858</v>
+      <c r="D4519" s="3" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="4520" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4520" s="2"/>
-      <c r="E4520" s="3" t="s">
-        <v>859</v>
+      <c r="D4520" s="3" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="4521" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4521" s="2"/>
-      <c r="E4521" s="2" t="s">
-        <v>2243</v>
+      <c r="D4521" s="3" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="4522" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4522" s="2"/>
-      <c r="E4522" s="3" t="s">
-        <v>2244</v>
+      <c r="C4522" s="3" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="4523" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4523" s="3" t="s">
-        <v>861</v>
+      <c r="D4523" s="2" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="4524" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4524" s="2" t="s">
-        <v>862</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="4525" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4525" s="3" t="s">
-        <v>863</v>
+      <c r="D4525" s="2"/>
+      <c r="E4525" s="2" t="s">
+        <v>2224</v>
       </c>
     </row>
     <row r="4526" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4526" s="3" t="s">
-        <v>864</v>
+      <c r="D4526" s="2" t="s">
+        <v>2225</v>
       </c>
     </row>
     <row r="4527" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4527" s="3" t="s">
-        <v>865</v>
+      <c r="D4527" s="2"/>
+      <c r="E4527" s="2" t="s">
+        <v>2226</v>
       </c>
     </row>
     <row r="4528" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4528" s="2" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="4529" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="4529" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4529" s="2"/>
       <c r="E4529" s="2" t="s">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="4530" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4530" s="2"/>
-      <c r="E4530" s="2" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="4531" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="4530" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4530" s="2" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="4531" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4531" s="2"/>
       <c r="E4531" s="2" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="4532" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4532" s="3" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="4533" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4533" s="3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="4534" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4534" s="3" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="4535" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4535" s="2" t="s">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="4536" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4536" s="2"/>
-      <c r="E4536" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="4537" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4537" s="3" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="4538" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4538" s="3" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="4539" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4539" s="3" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="4540" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4540" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="4541" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4541" s="2" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="4542" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4542" s="3" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="4543" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4543" s="3" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="4544" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4544" s="3" t="s">
-        <v>877</v>
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="4532" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4532" s="2" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="4533" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4533" s="2"/>
+      <c r="E4533" s="2" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="4534" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4534" s="2" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="4535" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4535" s="2"/>
+      <c r="E4535" s="2" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="4536" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4536" s="2" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="4537" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4537" s="2"/>
+      <c r="E4537" s="2" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="4538" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4538" s="2" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="4539" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4539" s="2"/>
+      <c r="E4539" s="2" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="4540" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4540" s="2" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="4541" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4541" s="2"/>
+      <c r="E4541" s="2" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="4542" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4542" s="2" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="4543" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4543" s="2"/>
+      <c r="E4543" s="2" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="4544" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4544" s="2" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="4545" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4545" s="3" t="s">
-        <v>878</v>
+      <c r="D4545" s="2"/>
+      <c r="E4545" s="2" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="4546" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4546" s="3" t="s">
-        <v>879</v>
+      <c r="D4546" s="2"/>
+      <c r="E4546" s="3" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="4547" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4547" s="2" t="s">
-        <v>880</v>
+      <c r="D4547" s="2"/>
+      <c r="E4547" s="2" t="s">
+        <v>2243</v>
       </c>
     </row>
     <row r="4548" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4548" s="3" t="s">
-        <v>881</v>
+      <c r="D4548" s="2"/>
+      <c r="E4548" s="3" t="s">
+        <v>2244</v>
       </c>
     </row>
     <row r="4549" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4549" s="3" t="s">
-        <v>882</v>
+      <c r="C4549" s="3" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="4550" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4550" s="3" t="s">
-        <v>883</v>
+      <c r="D4550" s="2" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="4551" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4551" s="3" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4552" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4552" s="2" t="s">
-        <v>2250</v>
+      <c r="D4552" s="3" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="4553" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4553" s="2"/>
-      <c r="E4553" s="3" t="s">
-        <v>1595</v>
+      <c r="D4553" s="3" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="4554" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4554" s="2"/>
-      <c r="E4554" s="2" t="s">
-        <v>2251</v>
+      <c r="D4554" s="2" t="s">
+        <v>2245</v>
       </c>
     </row>
     <row r="4555" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4555" s="3" t="s">
-        <v>885</v>
+      <c r="D4555" s="2"/>
+      <c r="E4555" s="2" t="s">
+        <v>2246</v>
       </c>
     </row>
     <row r="4556" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4556" s="2" t="s">
-        <v>886</v>
+      <c r="D4556" s="2"/>
+      <c r="E4556" s="2" t="s">
+        <v>2247</v>
       </c>
     </row>
     <row r="4557" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4557" s="3" t="s">
-        <v>887</v>
+      <c r="D4557" s="2"/>
+      <c r="E4557" s="2" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="4558" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4558" s="3" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4559" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4559" s="3" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4560" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4560" s="3" t="s">
-        <v>890</v>
+      <c r="D4560" s="3" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="4561" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4561" s="2" t="s">
-        <v>891</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="4562" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4562" s="2" t="s">
-        <v>2252</v>
+      <c r="D4562" s="2"/>
+      <c r="E4562" s="2" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="4563" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4563" s="2"/>
-      <c r="E4563" s="2" t="s">
-        <v>2253</v>
+      <c r="D4563" s="3" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="4564" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4564" s="3" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4565" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4565" s="3" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
     </row>
     <row r="4566" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4566" s="3" t="s">
-        <v>894</v>
+      <c r="C4566" s="3" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="4567" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4567" s="3" t="s">
-        <v>895</v>
+      <c r="D4567" s="2" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="4568" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4568" s="3" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4569" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4569" s="3" t="s">
-        <v>897</v>
+      <c r="D4569" s="3" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="4570" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4570" s="2" t="s">
-        <v>898</v>
+      <c r="D4570" s="3" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="4571" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4571" s="3" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4572" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4572" s="3" t="s">
-        <v>900</v>
+      <c r="C4572" s="3" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="4573" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4573" s="2" t="s">
-        <v>2254</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4574" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4574" s="3" t="s">
-        <v>2255</v>
+      <c r="D4574" s="3" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="4575" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4575" s="3" t="s">
-        <v>901</v>
+      <c r="D4575" s="3" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="4576" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4576" s="2" t="s">
-        <v>902</v>
+      <c r="D4576" s="3" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="4577" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4577" s="3" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
     </row>
     <row r="4578" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4578" s="2" t="s">
-        <v>2256</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="4579" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4579" s="2" t="s">
-        <v>2257</v>
+      <c r="D4579" s="2"/>
+      <c r="E4579" s="3" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="4580" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4580" s="2" t="s">
-        <v>2258</v>
+      <c r="D4580" s="2"/>
+      <c r="E4580" s="2" t="s">
+        <v>2251</v>
       </c>
     </row>
     <row r="4581" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4581" s="2" t="s">
-        <v>2259</v>
+      <c r="C4581" s="3" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="4582" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4582" s="2" t="s">
-        <v>2260</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4583" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4583" s="2" t="s">
-        <v>2261</v>
+      <c r="D4583" s="3" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="4584" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4584" s="2" t="s">
-        <v>2262</v>
+      <c r="D4584" s="3" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="4585" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4585" s="2" t="s">
-        <v>2263</v>
+      <c r="D4585" s="3" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="4586" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4586" s="3" t="s">
-        <v>2264</v>
+      <c r="C4586" s="3" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="4587" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4587" s="3" t="s">
-        <v>2265</v>
+      <c r="D4587" s="2" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="4588" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4588" s="3" t="s">
-        <v>904</v>
+      <c r="D4588" s="2" t="s">
+        <v>2252</v>
       </c>
     </row>
     <row r="4589" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4589" s="2" t="s">
-        <v>905</v>
+      <c r="D4589" s="2"/>
+      <c r="E4589" s="2" t="s">
+        <v>2253</v>
       </c>
     </row>
     <row r="4590" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4590" s="3" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4591" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4591" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="4592" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4592" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="4593" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4593" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="4594" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4594" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="4595" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4595" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4596" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4596" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="4597" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4597" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="4598" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4598" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4599" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4599" s="2" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="4600" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4600" s="3" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="4601" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4601" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="4602" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4602" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="4603" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4603" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4604" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4604" s="2" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="4605" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4605" s="2" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="4606" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4606" s="2" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="4607" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4607" s="2" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="4608" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4608" s="2" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="4609" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4609" s="2" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="4610" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4610" s="2" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="4611" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4611" s="2" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="4612" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4612" s="3" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="4613" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4613" s="3" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="4614" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4614" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="4615" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4615" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="4616" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4616" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="4617" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4617" s="3" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="4592" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4592" s="3" t="s">
+    <row r="4618" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4618" s="3" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="4593" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4593" s="2" t="s">
+    <row r="4619" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4619" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="4594" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4594" s="3" t="s">
+    <row r="4620" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4620" s="3" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="4595" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4595" s="3" t="s">
+    <row r="4621" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4621" s="3" t="s">
         <v>911</v>
-      </c>
-    </row>
-    <row r="4596" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4596" s="3" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="4597" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4597" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="4598" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4598" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="4599" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4599" s="3" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="4600" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4600" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="4601" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4601" s="3" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="4602" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4602" s="3" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="4603" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4603" s="3" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="4604" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4604" s="3" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="4605" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4605" s="3" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="4606" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4606" s="3" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="4607" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4607" s="3" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="4608" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4608" s="3" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="4609" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4609" s="3" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="4610" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4610" s="3" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4611" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4611" s="2" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="4612" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4612" s="2" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="4613" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4613" s="3" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="4614" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4614" s="3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="4615" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4615" s="3" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="4616" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4616" s="3" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="4617" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4617" s="2" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="4618" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4618" s="3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="4619" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4619" s="3" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="4620" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4620" s="2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="4621" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4621" s="2" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="4622" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4622" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="4623" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4623" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="4624" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4624" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="4625" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4625" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4626" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4626" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="4627" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4627" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4628" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4628" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="4629" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4629" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="4630" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4630" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="4631" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4631" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="4632" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4632" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="4633" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4633" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="4634" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4634" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4635" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4635" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="4636" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4636" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4637" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4637" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="4638" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4638" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="4639" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4639" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="4640" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4640" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="4641" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4641" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="4642" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4642" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="4643" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4643" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="4644" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4644" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="4645" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4645" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="4646" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4646" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="4647" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4647" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="4648" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4648" s="3" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="4623" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4623" s="3" t="s">
+    <row r="4649" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4649" s="3" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="4624" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4624" s="2" t="s">
+    <row r="4650" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4650" s="2" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="4625" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4625" s="3" t="s">
+    <row r="4651" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4651" s="3" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="4626" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4626" s="3" t="s">
+    <row r="4652" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4652" s="3" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="4627" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4627" s="3" t="s">
+    <row r="4653" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4653" s="3" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="4628" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4628" s="3" t="s">
+    <row r="4654" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4654" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="4629" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4629" s="2" t="s">
+    <row r="4655" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4655" s="2" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="4630" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4630" s="3" t="s">
+    <row r="4656" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4656" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="4631" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4631" s="3" t="s">
+    <row r="4657" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4657" s="3" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="4632" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B4632" s="2" t="s">
+    <row r="4658" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B4658" s="2" t="s">
         <v>4537</v>
       </c>
     </row>
-    <row r="4633" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B4633" s="2"/>
-      <c r="C4633" s="2" t="s">
+    <row r="4659" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B4659" s="2"/>
+      <c r="C4659" s="2" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="4634" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4634" s="2" t="s">
+    <row r="4660" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4660" s="2" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="4635" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4635" s="2"/>
-      <c r="D4635" s="2" t="s">
+    <row r="4661" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4661" s="2"/>
+      <c r="D4661" s="2" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="4636" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4636" s="2" t="s">
+    <row r="4662" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4662" s="2" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="4637" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4637" s="2"/>
-      <c r="D4637" s="2" t="s">
+    <row r="4663" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4663" s="2"/>
+      <c r="D4663" s="2" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="4638" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4638" s="2" t="s">
+    <row r="4664" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4664" s="2" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="4639" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4639" s="2"/>
-      <c r="D4639" s="2" t="s">
+    <row r="4665" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4665" s="2"/>
+      <c r="D4665" s="2" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="4640" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4640" s="2" t="s">
+    <row r="4666" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4666" s="2" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="4641" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4641" s="2"/>
-      <c r="D4641" s="2" t="s">
+    <row r="4667" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4667" s="2"/>
+      <c r="D4667" s="2" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="4642" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4642" s="2" t="s">
+    <row r="4668" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4668" s="2" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="4643" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4643" s="2"/>
-      <c r="D4643" s="2" t="s">
+    <row r="4669" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4669" s="2"/>
+      <c r="D4669" s="2" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="4644" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4644" s="2" t="s">
+    <row r="4670" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4670" s="2" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="4645" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4645" s="2"/>
-      <c r="D4645" s="2" t="s">
+    <row r="4671" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4671" s="2"/>
+      <c r="D4671" s="2" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="4646" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4646" s="2" t="s">
+    <row r="4672" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4672" s="2" t="s">
         <v>952</v>
-      </c>
-    </row>
-    <row r="4647" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4647" s="2"/>
-      <c r="D4647" s="2" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="4648" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4648" s="2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="4649" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4649" s="2"/>
-      <c r="D4649" s="2" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="4650" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4650" s="2" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="4651" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4651" s="2"/>
-      <c r="D4651" s="2" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="4652" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4652" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="4653" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4653" s="2"/>
-      <c r="D4653" s="2" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="4654" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4654" s="2" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="4655" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4655" s="2"/>
-      <c r="D4655" s="2" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="4656" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4656" s="2" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="4657" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4657" s="2"/>
-      <c r="D4657" s="2" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="4658" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4658" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="4659" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4659" s="2"/>
-      <c r="D4659" s="2" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="4660" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4660" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="4661" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4661" s="2" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="4662" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4662" s="2" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="4663" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4663" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="4664" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4664" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="4665" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4665" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="4666" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4666" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="4667" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4667" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="4668" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4668" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="4669" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4669" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="4670" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4670" s="2" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="4671" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4671" s="2" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="4672" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4672" s="2" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="4673" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C4673" s="2"/>
       <c r="D4673" s="2" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="4674" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="D4674" s="2" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="4675" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="4675" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4675" s="2"/>
       <c r="D4675" s="2" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="4676" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4676" s="2"/>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="4676" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="D4676" s="2" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="4677" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="4677" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4677" s="2"/>
       <c r="D4677" s="2" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="4678" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4678" s="2"/>
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="4678" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="D4678" s="2" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="4679" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="4679" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4679" s="2"/>
       <c r="D4679" s="2" t="s">
-        <v>975</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="4680" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="D4680" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="4681" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="4681" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4681" s="2"/>
       <c r="D4681" s="2" t="s">
-        <v>977</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="4682" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="D4682" s="2" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="4683" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="4683" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4683" s="2"/>
       <c r="D4683" s="2" t="s">
-        <v>979</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="4684" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="D4684" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="4685" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4685" s="2"/>
+      <c r="D4685" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="4686" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4686" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4687" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4687" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4688" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4688" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="4689" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4689" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="4690" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4690" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="4691" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4691" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="4692" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4692" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="4693" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4693" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="4694" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4694" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="4695" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4695" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="4696" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4696" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4697" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4697" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="4698" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4698" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="4699" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4699" s="2"/>
+      <c r="D4699" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4700" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4700" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="4701" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4701" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="4702" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4702" s="2"/>
+      <c r="D4702" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="4703" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4703" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="4704" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4704" s="2"/>
+      <c r="D4704" s="2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="4705" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4705" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="4706" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4706" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="4707" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4707" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="4708" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4708" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="4709" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4709" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="4710" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4710" s="2" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="4685" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4685" s="2" t="s">
+    <row r="4711" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4711" s="2" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="4686" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4686" s="2" t="s">
+    <row r="4712" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4712" s="2" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="4687" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4687" s="2"/>
-      <c r="D4687" s="2" t="s">
+    <row r="4713" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4713" s="2"/>
+      <c r="D4713" s="2" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="4688" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4688" s="2" t="s">
+    <row r="4714" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4714" s="2" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="4689" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4689" s="1" t="s">
+    <row r="4715" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4715" s="1" t="s">
         <v>4538</v>
       </c>
     </row>
-    <row r="4690" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4690" s="3" t="s">
+    <row r="4716" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4716" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4691" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4691" s="3" t="s">
+    <row r="4717" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4717" s="3" t="s">
         <v>4610</v>
       </c>
     </row>
-    <row r="4692" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4692" s="3" t="s">
+    <row r="4718" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4718" s="3" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="4693" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4693" s="3" t="s">
+    <row r="4719" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4719" s="3" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="4694" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4694" s="3" t="s">
+    <row r="4720" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4720" s="3" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="4695" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4695" s="3" t="s">
+    <row r="4721" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4721" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="4696" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4696" s="3" t="s">
+    <row r="4722" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4722" s="3" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="4697" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4697" s="3" t="s">
+    <row r="4723" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4723" s="3" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="4698" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4698" s="3" t="s">
+    <row r="4724" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4724" s="3" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="4699" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4699" s="3" t="s">
+    <row r="4725" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4725" s="3" t="s">
         <v>4611</v>
       </c>
     </row>
-    <row r="4700" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4700" s="3" t="s">
+    <row r="4726" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4726" s="3" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="4701" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4701" s="3" t="s">
+    <row r="4727" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4727" s="3" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="4702" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4702" s="3" t="s">
+    <row r="4728" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4728" s="3" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="4703" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4703" s="3" t="s">
+    <row r="4729" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4729" s="3" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="4704" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4704" s="3" t="s">
+    <row r="4730" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4730" s="3" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="4705" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4705" s="3" t="s">
+    <row r="4731" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4731" s="3" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="4706" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4706" s="3" t="s">
+    <row r="4732" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4732" s="3" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="4707" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4707" s="3" t="s">
+    <row r="4733" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4733" s="3" t="s">
         <v>4612</v>
       </c>
     </row>
-    <row r="4708" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4708" s="3" t="s">
+    <row r="4734" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4734" s="3" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="4709" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4709" s="3" t="s">
+    <row r="4735" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4735" s="3" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="4710" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4710" s="3" t="s">
+    <row r="4736" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4736" s="3" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="4711" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4711" s="3" t="s">
+    <row r="4737" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4737" s="3" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="4712" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4712" s="3" t="s">
+    <row r="4738" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4738" s="3" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="4713" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4713" s="3" t="s">
+    <row r="4739" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4739" s="3" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="4714" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4714" s="3" t="s">
+    <row r="4740" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4740" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="4715" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4715" s="3" t="s">
+    <row r="4741" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4741" s="3" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="4716" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4716" s="3" t="s">
+    <row r="4742" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4742" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="4717" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4717" s="3" t="s">
+    <row r="4743" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4743" s="3" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="4718" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4718" s="3" t="s">
+    <row r="4744" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4744" s="3" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="4719" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4719" s="3" t="s">
+    <row r="4745" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4745" s="3" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="4720" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4720" s="3" t="s">
+    <row r="4746" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4746" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4721" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4721" s="3" t="s">
+    <row r="4747" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4747" s="3" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="4722" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4722" s="3" t="s">
+    <row r="4748" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4748" s="3" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="4723" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4723" s="3" t="s">
+    <row r="4749" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4749" s="3" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="4724" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4724" s="3" t="s">
+    <row r="4750" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4750" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="4725" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4725" s="3" t="s">
+    <row r="4751" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4751" s="3" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="4726" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4726" s="2" t="s">
+    <row r="4752" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4752" s="2" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="4727" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4727" s="2" t="s">
+    <row r="4753" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4753" s="2" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="4728" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4728" s="3" t="s">
+    <row r="4754" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4754" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="4729" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4729" s="3" t="s">
+    <row r="4755" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4755" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="4730" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4730" s="3" t="s">
+    <row r="4756" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4756" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="4731" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4731" s="3" t="s">
+    <row r="4757" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4757" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="4732" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4732" s="2" t="s">
+    <row r="4758" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4758" s="2" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="4733" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4733" s="2" t="s">
+    <row r="4759" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4759" s="2" t="s">
         <v>4613</v>
       </c>
     </row>
-    <row r="4734" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4734" s="2" t="s">
+    <row r="4760" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4760" s="2" t="s">
         <v>4614</v>
       </c>
     </row>
-    <row r="4735" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4735" s="2" t="s">
+    <row r="4761" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4761" s="2" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="4736" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4736" s="2" t="s">
+    <row r="4762" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4762" s="2" t="s">
         <v>4615</v>
       </c>
     </row>
-    <row r="4737" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4737" s="2" t="s">
+    <row r="4763" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4763" s="2" t="s">
         <v>4616</v>
       </c>
     </row>
-    <row r="4738" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4738" s="2" t="s">
+    <row r="4764" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4764" s="2" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="4739" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4739" s="2" t="s">
+    <row r="4765" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4765" s="2" t="s">
         <v>4617</v>
       </c>
     </row>
-    <row r="4740" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4740" s="2" t="s">
+    <row r="4766" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4766" s="2" t="s">
         <v>4618</v>
       </c>
     </row>
-    <row r="4741" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4741" s="2" t="s">
+    <row r="4767" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4767" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="4742" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4742" s="3" t="s">
+    <row r="4768" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4768" s="3" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="4743" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4743" s="3" t="s">
+    <row r="4769" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4769" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="4744" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4744" s="2" t="s">
+    <row r="4770" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4770" s="2" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="4745" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4745" s="2" t="s">
+    <row r="4771" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4771" s="2" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="4746" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4746" s="2" t="s">
+    <row r="4772" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4772" s="2" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="4747" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4747" s="2" t="s">
+    <row r="4773" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4773" s="2" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="4748" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4748" s="2" t="s">
+    <row r="4774" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4774" s="2" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="4749" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4749" s="1" t="s">
+    <row r="4775" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4775" s="1" t="s">
         <v>4619</v>
       </c>
     </row>
-    <row r="4750" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C4750" s="1" t="s">
+    <row r="4776" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C4776" s="1" t="s">
         <v>4620</v>
       </c>
     </row>

--- a/cbreader2X/nav/advance_nav.xlsx
+++ b/cbreader2X/nav/advance_nav.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C18F89-59C3-4F14-8C4C-09ED857C9C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B81E69B-C288-4A76-8227-D02E109C4872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21516" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="4648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4822" uniqueCount="4677">
   <si>
     <t>歷代藏經補輯</t>
   </si>
@@ -15858,10 +15858,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ZWa072 徵稿啓事</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ZWa073 《藏外佛教文獻》總目錄（第一輯～第十二輯）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -15903,6 +15899,126 @@
   </si>
   <si>
     <t>研究論文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十一輯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa075 目錄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa076 卷首語</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa077 錄文校勘體例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三階教資料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0089 讚禮地藏菩薩懺悔發願法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0090 如來九觀（擬）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0091 金剛峻經金剛頂一切如來深妙秘密金剛界大三昧耶修行四十二種壇法經作用威儀法則　大毘盧遮那佛金剛心地法門密法戒壇法儀則</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0092 金剛峻經金剛頂一切如來深妙秘密金剛界大三昧耶修行四十九種壇法經作用威儀法則　大毘盧遮那佛金剛心地法門密法戒壇法儀則</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0093 佛說佛名經（二十卷本）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0094 敦煌本《壇經》校釋疏義</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0095 日本的漢文大藏經收藏及其特色——以刻本大藏經為中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0096 論《高麗再雕藏》中所見的《契丹藏》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa078 徵稿啟事</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa079 《藏外佛教文獻》總目錄（第一輯～第十二輯）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa080 鳴謝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa072 徵稿啟事</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa081 目錄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa082 卷首語</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa083 錄文校勘體例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0097 金剛般若經義疏卷二,方廣錩整理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0098 圓通三慧大齋道場儀,宋 侯溥作　侯沖整理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0099 佛說佛名經（二十卷本——卷第八～卷第十）,張麗．張磊整理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0100 敦煌本《壇經》校釋疏義（第六章～第八章）,張麗．張磊整理　研讀班集體討論</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0101 關於《佛說孝順子修行成佛經》的若干新資料,方廣錩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0102 關於宮內廳書陵部所藏福州版大藏經中的混合冊與印章,日本 宮內廳書陵部 中村一紀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0103 漢文大藏經研究要重視文獻價值的判別,熊國禎</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa084 徵稿啟事</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa085 《藏外佛教文獻》總目錄（第一輯～第十二輯）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二輯</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -16297,10 +16413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4776"/>
+  <dimension ref="A1:F4814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4097" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4124" sqref="D4124"/>
+    <sheetView tabSelected="1" topLeftCell="A4145" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4152" sqref="A4152:XFD4169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
@@ -36846,7 +36962,7 @@
     </row>
     <row r="4106" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C4106" s="3" t="s">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="D4106" s="4"/>
     </row>
@@ -36867,7 +36983,7 @@
     </row>
     <row r="4110" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4110" s="4" t="s">
-        <v>4640</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="4111" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
@@ -36878,7 +36994,7 @@
     </row>
     <row r="4112" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4112" s="4" t="s">
-        <v>4641</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="4113" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
@@ -36889,7 +37005,7 @@
     </row>
     <row r="4114" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4114" s="4" t="s">
-        <v>4642</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="4115" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
@@ -36900,7 +37016,7 @@
     </row>
     <row r="4116" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4116" s="4" t="s">
-        <v>4643</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="4117" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
@@ -36917,7 +37033,7 @@
     </row>
     <row r="4119" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4119" s="4" t="s">
-        <v>4644</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="4120" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
@@ -36928,7 +37044,7 @@
     </row>
     <row r="4121" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4121" s="4" t="s">
-        <v>4645</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="4122" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
@@ -36945,7 +37061,7 @@
     </row>
     <row r="4124" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4124" s="4" t="s">
-        <v>4646</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="4125" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
@@ -36956,7 +37072,7 @@
     </row>
     <row r="4126" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4126" s="4" t="s">
-        <v>4647</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="4127" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
@@ -36971,3302 +37087,3522 @@
         <v>4635</v>
       </c>
     </row>
-    <row r="4129" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4129" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4129" s="4" t="s">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="4130" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4130" s="4" t="s">
         <v>4636</v>
       </c>
     </row>
-    <row r="4130" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4130" s="4" t="s">
+    <row r="4131" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4131" s="4" t="s">
         <v>4637</v>
       </c>
     </row>
-    <row r="4131" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4131" s="4" t="s">
-        <v>4638</v>
-      </c>
-    </row>
-    <row r="4132" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4132" s="1" t="s">
+    <row r="4132" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4132" s="2" t="s">
+        <v>4647</v>
+      </c>
+      <c r="D4132" s="4"/>
+    </row>
+    <row r="4133" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4133" s="4" t="s">
+        <v>4648</v>
+      </c>
+      <c r="E4133" s="4"/>
+    </row>
+    <row r="4134" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4134" s="4" t="s">
+        <v>4649</v>
+      </c>
+      <c r="E4134" s="4"/>
+    </row>
+    <row r="4135" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4135" s="4" t="s">
+        <v>4650</v>
+      </c>
+      <c r="E4135" s="4"/>
+    </row>
+    <row r="4136" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4136" s="4" t="s">
+        <v>4651</v>
+      </c>
+      <c r="E4136" s="4"/>
+    </row>
+    <row r="4137" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4137" s="4" t="s">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="4138" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4138" s="4" t="s">
+        <v>4643</v>
+      </c>
+      <c r="E4138" s="4"/>
+    </row>
+    <row r="4139" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4139" s="4" t="s">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="4140" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4140" s="4" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4141" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4141" s="4" t="s">
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="4142" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4142" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E4142" s="4"/>
+    </row>
+    <row r="4143" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4143" s="4" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="4144" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4144" s="4" t="s">
+        <v>4645</v>
+      </c>
+      <c r="E4144" s="4"/>
+    </row>
+    <row r="4145" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4145" s="4" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="4146" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4146" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="E4146" s="4"/>
+    </row>
+    <row r="4147" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4147" s="4" t="s">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="4148" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4148" s="4" t="s">
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="4149" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4149" s="4" t="s">
+        <v>4660</v>
+      </c>
+      <c r="E4149" s="4"/>
+    </row>
+    <row r="4150" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4150" s="4" t="s">
+        <v>4661</v>
+      </c>
+      <c r="E4150" s="4"/>
+    </row>
+    <row r="4151" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4151" s="4" t="s">
+        <v>4662</v>
+      </c>
+      <c r="E4151" s="4"/>
+    </row>
+    <row r="4152" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4152" s="2" t="s">
+        <v>4676</v>
+      </c>
+      <c r="D4152" s="4"/>
+    </row>
+    <row r="4153" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4153" s="4" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E4153" s="4"/>
+    </row>
+    <row r="4154" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4154" s="4" t="s">
+        <v>4665</v>
+      </c>
+      <c r="E4154" s="4"/>
+    </row>
+    <row r="4155" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4155" s="4" t="s">
+        <v>4666</v>
+      </c>
+      <c r="E4155" s="4"/>
+    </row>
+    <row r="4156" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4156" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4156" s="4"/>
+    </row>
+    <row r="4157" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4157" s="4"/>
+      <c r="E4157" s="4" t="s">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="4158" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4158" s="4" t="s">
+        <v>4643</v>
+      </c>
+      <c r="E4158" s="4"/>
+    </row>
+    <row r="4159" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4159" s="4"/>
+      <c r="E4159" s="4" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="4160" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4160" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E4160" s="4"/>
+    </row>
+    <row r="4161" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4161" s="4"/>
+      <c r="E4161" s="4" t="s">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="4162" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4162" s="4" t="s">
+        <v>4645</v>
+      </c>
+      <c r="E4162" s="4"/>
+    </row>
+    <row r="4163" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4163" s="4"/>
+      <c r="E4163" s="4" t="s">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="4164" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4164" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="E4164" s="4"/>
+    </row>
+    <row r="4165" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4165" s="4"/>
+      <c r="E4165" s="4" t="s">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="4166" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4166" s="4"/>
+      <c r="E4166" s="4" t="s">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="4167" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4167" s="4"/>
+      <c r="E4167" s="4" t="s">
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="4168" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4168" s="4" t="s">
+        <v>4674</v>
+      </c>
+      <c r="E4168" s="4"/>
+    </row>
+    <row r="4169" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4169" s="4" t="s">
+        <v>4675</v>
+      </c>
+      <c r="E4169" s="4"/>
+    </row>
+    <row r="4170" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4170" s="1" t="s">
         <v>4534</v>
       </c>
     </row>
-    <row r="4133" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4133" s="2" t="s">
+    <row r="4171" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4171" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="4134" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4134" s="2" t="s">
+    <row r="4172" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4172" s="2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="4135" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4135" s="2" t="s">
+    <row r="4173" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4173" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="4136" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4136" s="2" t="s">
+    <row r="4174" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4174" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="4137" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4137" s="3" t="s">
+    <row r="4175" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4175" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="4138" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4138" s="1" t="s">
+    <row r="4176" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4176" s="1" t="s">
         <v>4535</v>
       </c>
     </row>
-    <row r="4139" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4139" s="2" t="s">
+    <row r="4177" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4177" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="4140" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4140" s="3" t="s">
+    <row r="4178" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4178" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="4141" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4141" s="3" t="s">
+    <row r="4179" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4179" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="4142" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4142" s="3" t="s">
+    <row r="4180" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4180" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="4143" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4143" s="3" t="s">
+    <row r="4181" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4181" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="4144" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4144" s="3" t="s">
+    <row r="4182" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4182" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="4145" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4145" s="3" t="s">
+    <row r="4183" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4183" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="4146" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4146" s="3" t="s">
+    <row r="4184" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4184" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="4147" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4147" s="3" t="s">
+    <row r="4185" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4185" s="3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="4148" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4148" s="3" t="s">
+    <row r="4186" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4186" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="4149" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4149" s="3" t="s">
+    <row r="4187" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4187" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="4150" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4150" s="3" t="s">
+    <row r="4188" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4188" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="4151" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4151" s="3" t="s">
+    <row r="4189" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4189" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="4152" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4152" s="3" t="s">
+    <row r="4190" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4190" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="4153" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4153" s="3" t="s">
+    <row r="4191" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4191" s="3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="4154" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4154" s="3" t="s">
+    <row r="4192" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4192" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="4155" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4155" s="3" t="s">
+    <row r="4193" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4193" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="4156" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4156" s="3" t="s">
+    <row r="4194" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4194" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="4157" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4157" s="3" t="s">
+    <row r="4195" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4195" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="4158" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4158" s="3" t="s">
+    <row r="4196" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4196" s="3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="4159" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4159" s="3" t="s">
+    <row r="4197" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4197" s="3" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="4160" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4160" s="3" t="s">
+    <row r="4198" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4198" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="4161" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4161" s="3" t="s">
+    <row r="4199" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4199" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="4162" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4162" s="3" t="s">
+    <row r="4200" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4200" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="4163" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4163" s="3" t="s">
+    <row r="4201" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4201" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="4164" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4164" s="3" t="s">
+    <row r="4202" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4202" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4165" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4165" s="3" t="s">
+    <row r="4203" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4203" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="4166" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4166" s="3" t="s">
+    <row r="4204" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4204" s="3" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="4167" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4167" s="3" t="s">
+    <row r="4205" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4205" s="3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="4168" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4168" s="3" t="s">
+    <row r="4206" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4206" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="4169" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4169" s="3" t="s">
+    <row r="4207" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4207" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="4170" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4170" s="3" t="s">
+    <row r="4208" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4208" s="3" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="4171" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4171" s="3" t="s">
+    <row r="4209" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4209" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="4172" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4172" s="3" t="s">
+    <row r="4210" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4210" s="3" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="4173" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4173" s="3" t="s">
+    <row r="4211" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4211" s="3" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="4174" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4174" s="3" t="s">
+    <row r="4212" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4212" s="3" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="4175" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4175" s="3" t="s">
+    <row r="4213" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4213" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="4176" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4176" s="3" t="s">
+    <row r="4214" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4214" s="3" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="4177" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4177" s="3" t="s">
+    <row r="4215" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4215" s="3" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="4178" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4178" s="3" t="s">
+    <row r="4216" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4216" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="4179" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4179" s="3" t="s">
+    <row r="4217" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4217" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="4180" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4180" s="3" t="s">
+    <row r="4218" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4218" s="3" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="4181" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4181" s="3" t="s">
+    <row r="4219" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4219" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="4182" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4182" s="3" t="s">
+    <row r="4220" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4220" s="3" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="4183" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4183" s="3" t="s">
+    <row r="4221" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4221" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="4184" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4184" s="3" t="s">
+    <row r="4222" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4222" s="3" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="4185" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4185" s="3" t="s">
+    <row r="4223" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4223" s="3" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="4186" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4186" s="3" t="s">
+    <row r="4224" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4224" s="3" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="4187" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4187" s="3" t="s">
+    <row r="4225" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4225" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="4188" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4188" s="3" t="s">
+    <row r="4226" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4226" s="3" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="4189" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4189" s="3" t="s">
+    <row r="4227" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4227" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="4190" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4190" s="3" t="s">
+    <row r="4228" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4228" s="3" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="4191" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4191" s="3" t="s">
+    <row r="4229" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4229" s="3" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="4192" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4192" s="3" t="s">
+    <row r="4230" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4230" s="3" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="4193" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4193" s="3" t="s">
+    <row r="4231" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4231" s="3" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="4194" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4194" s="3" t="s">
+    <row r="4232" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4232" s="3" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="4195" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4195" s="3" t="s">
+    <row r="4233" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4233" s="3" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="4196" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4196" s="3" t="s">
+    <row r="4234" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4234" s="3" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="4197" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4197" s="3" t="s">
+    <row r="4235" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4235" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="4198" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4198" s="3" t="s">
+    <row r="4236" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4236" s="3" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="4199" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4199" s="3" t="s">
+    <row r="4237" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4237" s="3" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="4200" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4200" s="3" t="s">
+    <row r="4238" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4238" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="4201" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4201" s="3" t="s">
+    <row r="4239" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4239" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="4202" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4202" s="3" t="s">
+    <row r="4240" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4240" s="3" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="4203" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4203" s="3" t="s">
+    <row r="4241" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4241" s="3" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="4204" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4204" s="3" t="s">
+    <row r="4242" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4242" s="3" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="4205" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4205" s="3" t="s">
+    <row r="4243" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4243" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="4206" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4206" s="3" t="s">
+    <row r="4244" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4244" s="3" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="4207" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4207" s="3" t="s">
+    <row r="4245" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4245" s="3" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="4208" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4208" s="3" t="s">
+    <row r="4246" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4246" s="3" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="4209" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4209" s="3" t="s">
+    <row r="4247" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4247" s="3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="4210" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4210" s="3" t="s">
+    <row r="4248" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4248" s="3" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="4211" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4211" s="3" t="s">
+    <row r="4249" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4249" s="3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="4212" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4212" s="3" t="s">
+    <row r="4250" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4250" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="4213" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4213" s="3" t="s">
+    <row r="4251" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4251" s="3" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="4214" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4214" s="3" t="s">
+    <row r="4252" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4252" s="3" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="4215" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4215" s="3" t="s">
+    <row r="4253" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4253" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="4216" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4216" s="3" t="s">
+    <row r="4254" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4254" s="3" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="4217" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4217" s="3" t="s">
+    <row r="4255" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4255" s="3" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="4218" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4218" s="3" t="s">
+    <row r="4256" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4256" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="4219" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4219" s="3" t="s">
+    <row r="4257" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4257" s="3" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="4220" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4220" s="3" t="s">
+    <row r="4258" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4258" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="4221" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4221" s="3" t="s">
+    <row r="4259" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4259" s="3" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="4222" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4222" s="3" t="s">
+    <row r="4260" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4260" s="3" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="4223" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4223" s="3" t="s">
+    <row r="4261" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4261" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="4224" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4224" s="3" t="s">
+    <row r="4262" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4262" s="3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="4225" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4225" s="3" t="s">
+    <row r="4263" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4263" s="3" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="4226" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4226" s="3" t="s">
+    <row r="4264" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4264" s="3" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="4227" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4227" s="3" t="s">
+    <row r="4265" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4265" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="4228" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4228" s="3" t="s">
+    <row r="4266" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4266" s="3" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="4229" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4229" s="3" t="s">
+    <row r="4267" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4267" s="3" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="4230" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4230" s="3" t="s">
+    <row r="4268" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4268" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="4231" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4231" s="3" t="s">
+    <row r="4269" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4269" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="4232" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4232" s="3" t="s">
+    <row r="4270" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4270" s="3" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="4233" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4233" s="3" t="s">
+    <row r="4271" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4271" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="4234" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4234" s="3" t="s">
+    <row r="4272" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4272" s="3" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="4235" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4235" s="3" t="s">
+    <row r="4273" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4273" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="4236" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4236" s="3" t="s">
+    <row r="4274" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4274" s="3" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="4237" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4237" s="3" t="s">
+    <row r="4275" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4275" s="3" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="4238" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4238" s="3" t="s">
+    <row r="4276" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4276" s="3" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="4239" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4239" s="3" t="s">
+    <row r="4277" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4277" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="4240" spans="5:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4240" s="3" t="s">
+    <row r="4278" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4278" s="3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="4241" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4241" s="3" t="s">
+    <row r="4279" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4279" s="3" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="4242" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4242" s="3" t="s">
+    <row r="4280" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4280" s="3" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="4243" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4243" s="3" t="s">
+    <row r="4281" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4281" s="3" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="4244" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4244" s="3" t="s">
+    <row r="4282" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4282" s="3" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="4245" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4245" s="3" t="s">
+    <row r="4283" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4283" s="3" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="4246" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4246" s="3" t="s">
+    <row r="4284" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4284" s="3" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="4247" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4247" s="3" t="s">
+    <row r="4285" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4285" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="4248" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4248" s="3" t="s">
+    <row r="4286" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4286" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="4249" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4249" s="3" t="s">
+    <row r="4287" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4287" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="4250" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4250" s="3" t="s">
+    <row r="4288" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4288" s="3" t="s">
         <v>610</v>
-      </c>
-    </row>
-    <row r="4251" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4251" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="4252" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4252" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="4253" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4253" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="4254" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4254" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="4255" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4255" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="4256" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4256" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="4257" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4257" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="4258" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4258" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="4259" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4259" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="4260" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4260" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4261" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4261" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="4262" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4262" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="4263" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4263" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4264" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4264" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="4265" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4265" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="4266" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4266" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="4267" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4267" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="4268" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4268" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4269" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4269" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="4270" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4270" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4271" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4271" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="4272" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4272" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="4273" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4273" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="4274" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4274" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="4275" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4275" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="4276" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4276" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4277" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4277" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="4278" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4278" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="4279" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4279" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="4280" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4280" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="4281" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4281" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="4282" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4282" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="4283" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4283" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="4284" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4284" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="4285" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4285" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="4286" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4286" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="4287" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4287" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="4288" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4288" s="3" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="4289" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4289" s="3" t="s">
-        <v>646</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4290" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4290" s="3" t="s">
-        <v>647</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4291" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4291" s="3" t="s">
-        <v>648</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4292" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4292" s="3" t="s">
-        <v>649</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4293" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4293" s="3" t="s">
-        <v>650</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4294" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4294" s="3" t="s">
-        <v>651</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4295" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4295" s="3" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4296" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4296" s="3" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4297" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4297" s="3" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4298" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4298" s="3" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4299" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4299" s="3" t="s">
-        <v>653</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4300" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4300" s="3" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4301" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4301" s="3" t="s">
-        <v>673</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4302" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4302" s="3" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4303" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4303" s="3" t="s">
-        <v>675</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4304" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4304" s="3" t="s">
-        <v>676</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4305" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4305" s="3" t="s">
-        <v>677</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4306" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4306" s="3" t="s">
-        <v>678</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4307" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4307" s="3" t="s">
-        <v>679</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4308" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4308" s="3" t="s">
-        <v>680</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4309" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4309" s="3" t="s">
-        <v>681</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4310" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4310" s="3" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4311" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4311" s="3" t="s">
-        <v>682</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4312" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4312" s="3" t="s">
-        <v>683</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4313" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4313" s="3" t="s">
-        <v>684</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4314" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4314" s="3" t="s">
-        <v>685</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4315" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4315" s="3" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4316" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4316" s="3" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4317" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4317" s="3" t="s">
-        <v>687</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4318" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4318" s="3" t="s">
-        <v>688</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4319" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4319" s="3" t="s">
-        <v>689</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4320" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4320" s="3" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4321" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4321" s="3" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4322" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4322" s="3" t="s">
-        <v>691</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4323" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4323" s="3" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4324" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4324" s="3" t="s">
-        <v>693</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4325" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4325" s="3" t="s">
-        <v>694</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4326" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4326" s="3" t="s">
-        <v>695</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4327" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4327" s="3" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4328" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4328" s="3" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4329" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4329" s="3" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4330" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4330" s="3" t="s">
-        <v>696</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4331" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4331" s="3" t="s">
-        <v>697</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4332" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4332" s="3" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4333" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4333" s="3" t="s">
-        <v>699</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4334" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4334" s="3" t="s">
-        <v>700</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4335" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4335" s="3" t="s">
-        <v>701</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4336" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4336" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4337" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4337" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4338" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4338" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4339" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4339" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4340" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4340" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4341" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4341" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4342" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4342" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4343" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4343" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4344" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4344" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4345" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4345" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="4346" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4346" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4347" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4347" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4348" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4348" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4349" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4349" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4350" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4350" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="4351" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4351" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4352" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4352" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4353" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4353" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4354" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4354" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4355" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4355" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4356" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4356" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4357" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4357" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="4358" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4358" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4359" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4359" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4360" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4360" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="4361" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4361" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4362" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4362" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4363" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4363" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4364" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4364" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4365" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4365" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4366" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4366" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4367" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4367" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4368" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4368" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="4369" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4369" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4370" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4370" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4371" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4371" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4372" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4372" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4373" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4373" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4374" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4374" s="3" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="4337" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4337" s="3" t="s">
+    <row r="4375" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4375" s="3" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="4338" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4338" s="3" t="s">
+    <row r="4376" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4376" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="4339" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4339" s="3" t="s">
+    <row r="4377" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4377" s="3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="4340" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4340" s="3" t="s">
+    <row r="4378" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4378" s="3" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="4341" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4341" s="3" t="s">
+    <row r="4379" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4379" s="3" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="4342" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4342" s="3" t="s">
+    <row r="4380" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4380" s="3" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="4343" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4343" s="3" t="s">
+    <row r="4381" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4381" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="4344" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4344" s="3" t="s">
+    <row r="4382" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4382" s="3" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="4345" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4345" s="3" t="s">
+    <row r="4383" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4383" s="3" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="4346" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4346" s="3" t="s">
+    <row r="4384" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4384" s="3" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="4347" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4347" s="1" t="s">
+    <row r="4385" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4385" s="1" t="s">
         <v>4536</v>
       </c>
     </row>
-    <row r="4348" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B4348" s="2"/>
-      <c r="C4348" s="2" t="s">
+    <row r="4386" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B4386" s="2"/>
+      <c r="C4386" s="2" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="4349" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B4349" s="2"/>
-      <c r="C4349" s="2" t="s">
+    <row r="4387" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B4387" s="2"/>
+      <c r="C4387" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="4350" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4350" s="2" t="s">
+    <row r="4388" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4388" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="4351" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4351" s="5" t="s">
+    <row r="4389" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4389" s="5" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="4352" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4352" s="2" t="s">
+    <row r="4390" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4390" s="2" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="4353" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4353" s="2"/>
-      <c r="D4353" s="2" t="s">
+    <row r="4391" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4391" s="2"/>
+      <c r="D4391" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="4354" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4354" s="5" t="s">
+    <row r="4392" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4392" s="5" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="4355" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4355" s="3" t="s">
+    <row r="4393" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4393" s="3" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="4356" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4356" s="2" t="s">
+    <row r="4394" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4394" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="4357" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4357" s="3" t="s">
+    <row r="4395" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4395" s="3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="4358" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4358" s="3" t="s">
+    <row r="4396" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4396" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="4359" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4359" s="3" t="s">
+    <row r="4397" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4397" s="3" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="4360" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4360" s="3" t="s">
+    <row r="4398" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4398" s="3" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="4361" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4361" s="3" t="s">
+    <row r="4399" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4399" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="4362" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4362" s="3" t="s">
+    <row r="4400" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4400" s="3" t="s">
         <v>726</v>
-      </c>
-    </row>
-    <row r="4363" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4363" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="4364" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4364" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="4365" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4365" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="4366" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4366" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="4367" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4367" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="4368" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4368" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="4369" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4369" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="4370" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4370" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="4371" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4371" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="4372" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4372" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="4373" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4373" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="4374" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4374" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="4375" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4375" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="4376" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4376" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="4377" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4377" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="4378" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4378" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="4379" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4379" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="4380" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4380" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="4381" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4381" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="4382" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4382" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="4383" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4383" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="4384" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4384" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="4385" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4385" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="4386" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4386" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="4387" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4387" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="4388" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4388" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="4389" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4389" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="4390" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4390" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="4391" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4391" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="4392" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4392" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="4393" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4393" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="4394" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4394" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="4395" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4395" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="4396" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4396" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="4397" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4397" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="4398" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4398" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="4399" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4399" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="4400" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4400" s="3" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="4401" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4401" s="3" t="s">
-        <v>765</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4402" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4402" s="3" t="s">
-        <v>766</v>
+      <c r="C4402" s="3" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="4403" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4403" s="3" t="s">
-        <v>767</v>
+      <c r="D4403" s="2" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="4404" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4404" s="3" t="s">
-        <v>768</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4405" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4405" s="3" t="s">
-        <v>769</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4406" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4406" s="3" t="s">
-        <v>770</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4407" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4407" s="3" t="s">
-        <v>771</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4408" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4408" s="3" t="s">
-        <v>772</v>
+      <c r="D4408" s="3" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="4409" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4409" s="2" t="s">
-        <v>773</v>
+      <c r="D4409" s="3" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="4410" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4410" s="3" t="s">
-        <v>774</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4411" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4411" s="3" t="s">
-        <v>775</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4412" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4412" s="3" t="s">
-        <v>776</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4413" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4413" s="3" t="s">
-        <v>777</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4414" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4414" s="3" t="s">
-        <v>778</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4415" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4415" s="3" t="s">
-        <v>779</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4416" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4416" s="3" t="s">
-        <v>780</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4417" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4417" s="3" t="s">
-        <v>781</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4418" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4418" s="3" t="s">
-        <v>782</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4419" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4419" s="3" t="s">
-        <v>783</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4420" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4420" s="3" t="s">
-        <v>784</v>
+      <c r="C4420" s="3" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="4421" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4421" s="3" t="s">
-        <v>785</v>
+      <c r="D4421" s="2" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="4422" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4422" s="3" t="s">
-        <v>786</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4423" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4423" s="3" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4424" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4424" s="3" t="s">
-        <v>788</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4425" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4425" s="3" t="s">
-        <v>789</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4426" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4426" s="3" t="s">
-        <v>790</v>
+      <c r="C4426" s="3" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="4427" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4427" s="3" t="s">
-        <v>791</v>
+      <c r="D4427" s="2" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="4428" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4428" s="3" t="s">
-        <v>792</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4429" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4429" s="3" t="s">
-        <v>793</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4430" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4430" s="3" t="s">
-        <v>794</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4431" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4431" s="3" t="s">
-        <v>795</v>
+      <c r="D4431" s="3" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="4432" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4432" s="2" t="s">
-        <v>796</v>
+      <c r="D4432" s="3" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="4433" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4433" s="3" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4434" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4434" s="3" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4435" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4435" s="3" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4436" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4436" s="3" t="s">
-        <v>800</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4437" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4437" s="3" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4438" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4438" s="3" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4439" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4439" s="3" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4440" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4440" s="3" t="s">
-        <v>804</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4441" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4441" s="3" t="s">
-        <v>805</v>
+      <c r="D4441" s="3" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="4442" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4442" s="2" t="s">
-        <v>806</v>
+      <c r="D4442" s="3" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="4443" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4443" s="3" t="s">
-        <v>807</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4444" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4444" s="3" t="s">
-        <v>808</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4445" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4445" s="3" t="s">
-        <v>809</v>
+      <c r="D4445" s="3" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="4446" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4446" s="2" t="s">
-        <v>810</v>
+      <c r="C4446" s="3" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="4447" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4447" s="3" t="s">
-        <v>811</v>
+      <c r="D4447" s="2" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="4448" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4448" s="6" t="s">
-        <v>4621</v>
-      </c>
-    </row>
-    <row r="4449" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4448" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="4449" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4449" s="3" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="4450" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4450" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="4451" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4451" s="2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="4452" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4450" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4450" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="4451" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4451" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4452" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4452" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="4453" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4453" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4453" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="4454" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4454" s="2" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="4455" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4455" s="2"/>
-      <c r="E4455" s="2" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="4456" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4454" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4454" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="4455" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4455" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4456" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4456" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="4457" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4457" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4457" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="4458" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4458" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4458" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="4459" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4459" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4459" s="3" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="4460" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4460" s="2" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="4461" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4461" s="2" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="4462" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4462" s="2" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="4463" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4463" s="5" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="4464" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4464" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="4465" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4465" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="4466" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="4460" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4460" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="4461" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4461" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="4462" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4462" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="4463" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4463" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="4464" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4464" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4465" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4465" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="4466" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4466" s="3" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="4467" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="4467" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4467" s="3" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="4468" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="4468" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4468" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="4469" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4469" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="4470" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4470" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="4471" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4469" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4469" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="4470" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4470" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="4471" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4471" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="4472" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4472" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="4473" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4473" s="2" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="4474" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="4472" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4472" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="4473" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4473" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4474" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4474" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="4475" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4475" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4475" s="3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="4476" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4476" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4476" s="3" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="4477" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4477" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4477" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="4478" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="4478" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4478" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="4479" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4479" s="2" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="4480" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4480" s="2" t="s">
-        <v>2196</v>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="4479" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4479" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="4480" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4480" s="2" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="4481" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4481" s="3" t="s">
-        <v>840</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4482" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4482" s="2" t="s">
-        <v>2197</v>
+      <c r="D4482" s="3" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="4483" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4483" s="2" t="s">
-        <v>2198</v>
+      <c r="C4483" s="3" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="4484" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4484" s="3" t="s">
-        <v>841</v>
+      <c r="D4484" s="2" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="4485" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4485" s="2" t="s">
-        <v>842</v>
+      <c r="D4485" s="3" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="4486" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4486" s="2" t="s">
-        <v>843</v>
+      <c r="D4486" s="6" t="s">
+        <v>4621</v>
       </c>
     </row>
     <row r="4487" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4487" s="3" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4488" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4488" s="2" t="s">
-        <v>845</v>
+      <c r="C4488" s="3" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="4489" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4489" s="2" t="s">
-        <v>846</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4490" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4490" s="2" t="s">
-        <v>2199</v>
+      <c r="D4490" s="3" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="4491" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4491" s="2"/>
-      <c r="E4491" s="2" t="s">
-        <v>2200</v>
+      <c r="D4491" s="3" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="4492" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4492" s="2" t="s">
-        <v>2201</v>
-      </c>
-      <c r="E4492" s="2"/>
+        <v>2193</v>
+      </c>
     </row>
     <row r="4493" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4493" s="2"/>
       <c r="E4493" s="2" t="s">
-        <v>2202</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="4494" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4494" s="2" t="s">
-        <v>2203</v>
-      </c>
-      <c r="E4494" s="2"/>
+      <c r="D4494" s="3" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="4495" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4495" s="2"/>
-      <c r="E4495" s="2" t="s">
-        <v>2204</v>
+      <c r="D4495" s="3" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="4496" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4496" s="2" t="s">
-        <v>2205</v>
-      </c>
-      <c r="E4496" s="2"/>
-    </row>
-    <row r="4497" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4497" s="2"/>
-      <c r="E4497" s="2" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="4498" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4498" s="2" t="s">
-        <v>2207</v>
-      </c>
-      <c r="E4498" s="2"/>
-    </row>
-    <row r="4499" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4499" s="2"/>
-      <c r="E4499" s="2" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="4500" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4500" s="3" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="4501" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4501" s="2" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="4502" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4502" s="2" t="s">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="4503" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4503" s="2"/>
-      <c r="E4503" s="2" t="s">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="4504" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4504" s="2" t="s">
-        <v>2211</v>
-      </c>
-    </row>
-    <row r="4505" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4505" s="2"/>
-      <c r="E4505" s="2" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="4506" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4506" s="2" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="4507" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4507" s="2"/>
-      <c r="E4507" s="2" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="4508" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4508" s="2" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="4509" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4509" s="2"/>
-      <c r="E4509" s="2" t="s">
-        <v>2216</v>
-      </c>
-    </row>
-    <row r="4510" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4510" s="2" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="4511" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4511" s="2"/>
-      <c r="E4511" s="2" t="s">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="4512" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4512" s="2" t="s">
-        <v>2219</v>
+      <c r="D4496" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="4497" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4497" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4498" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4498" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="4499" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4499" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="4500" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4500" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="4501" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4501" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="4502" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4502" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="4503" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4503" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="4504" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4504" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="4505" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4505" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="4506" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4506" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="4507" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4507" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="4508" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4508" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4509" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4509" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="4510" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4510" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4511" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4511" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="4512" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4512" s="3" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="4513" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4513" s="2"/>
-      <c r="E4513" s="2" t="s">
-        <v>2220</v>
+      <c r="D4513" s="3" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="4514" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4514" s="2" t="s">
-        <v>2221</v>
+      <c r="D4514" s="3" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="4515" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4515" s="2"/>
-      <c r="E4515" s="2" t="s">
-        <v>2222</v>
+      <c r="D4515" s="3" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="4516" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4516" s="3" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4517" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4517" s="3" t="s">
-        <v>850</v>
+      <c r="D4517" s="2" t="s">
+        <v>2195</v>
       </c>
     </row>
     <row r="4518" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4518" s="2" t="s">
-        <v>851</v>
+      <c r="E4518" s="2" t="s">
+        <v>2196</v>
       </c>
     </row>
     <row r="4519" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4519" s="3" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4520" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4520" s="3" t="s">
-        <v>853</v>
+      <c r="D4520" s="2" t="s">
+        <v>2197</v>
       </c>
     </row>
     <row r="4521" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4521" s="3" t="s">
-        <v>854</v>
+      <c r="E4521" s="2" t="s">
+        <v>2198</v>
       </c>
     </row>
     <row r="4522" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C4522" s="3" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4523" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4523" s="2" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4524" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4524" s="2" t="s">
-        <v>2223</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4525" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4525" s="2"/>
-      <c r="E4525" s="2" t="s">
-        <v>2224</v>
+      <c r="D4525" s="3" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="4526" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4526" s="2" t="s">
-        <v>2225</v>
+      <c r="C4526" s="2" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="4527" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4527" s="2"/>
-      <c r="E4527" s="2" t="s">
-        <v>2226</v>
+      <c r="D4527" s="2" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="4528" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4528" s="2" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="4529" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="4529" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4529" s="2"/>
       <c r="E4529" s="2" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="4530" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="4530" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4530" s="2" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="4531" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2201</v>
+      </c>
+      <c r="E4530" s="2"/>
+    </row>
+    <row r="4531" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4531" s="2"/>
       <c r="E4531" s="2" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="4532" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="4532" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4532" s="2" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="4533" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2203</v>
+      </c>
+      <c r="E4532" s="2"/>
+    </row>
+    <row r="4533" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4533" s="2"/>
       <c r="E4533" s="2" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="4534" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="4534" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4534" s="2" t="s">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="4535" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2205</v>
+      </c>
+      <c r="E4534" s="2"/>
+    </row>
+    <row r="4535" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4535" s="2"/>
       <c r="E4535" s="2" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="4536" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="4536" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4536" s="2" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="4537" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2207</v>
+      </c>
+      <c r="E4536" s="2"/>
+    </row>
+    <row r="4537" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4537" s="2"/>
       <c r="E4537" s="2" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="4538" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4538" s="2" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="4539" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4539" s="2"/>
-      <c r="E4539" s="2" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="4540" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="4538" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4538" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4539" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4539" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="4540" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4540" s="2" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="4541" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="4541" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4541" s="2"/>
       <c r="E4541" s="2" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="4542" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="4542" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4542" s="2" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="4543" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="4543" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4543" s="2"/>
       <c r="E4543" s="2" t="s">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="4544" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="4544" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4544" s="2" t="s">
-        <v>857</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="4545" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4545" s="2"/>
       <c r="E4545" s="2" t="s">
-        <v>858</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="4546" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4546" s="2"/>
-      <c r="E4546" s="3" t="s">
-        <v>859</v>
+      <c r="D4546" s="2" t="s">
+        <v>2215</v>
       </c>
     </row>
     <row r="4547" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4547" s="2"/>
       <c r="E4547" s="2" t="s">
-        <v>2243</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="4548" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4548" s="2"/>
-      <c r="E4548" s="3" t="s">
-        <v>2244</v>
+      <c r="D4548" s="2" t="s">
+        <v>2217</v>
       </c>
     </row>
     <row r="4549" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4549" s="3" t="s">
-        <v>861</v>
+      <c r="D4549" s="2"/>
+      <c r="E4549" s="2" t="s">
+        <v>2218</v>
       </c>
     </row>
     <row r="4550" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4550" s="2" t="s">
-        <v>862</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="4551" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4551" s="3" t="s">
-        <v>863</v>
+      <c r="D4551" s="2"/>
+      <c r="E4551" s="2" t="s">
+        <v>2220</v>
       </c>
     </row>
     <row r="4552" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4552" s="3" t="s">
-        <v>864</v>
+      <c r="D4552" s="2" t="s">
+        <v>2221</v>
       </c>
     </row>
     <row r="4553" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4553" s="3" t="s">
-        <v>865</v>
+      <c r="D4553" s="2"/>
+      <c r="E4553" s="2" t="s">
+        <v>2222</v>
       </c>
     </row>
     <row r="4554" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4554" s="2" t="s">
-        <v>2245</v>
+      <c r="D4554" s="3" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="4555" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4555" s="2"/>
-      <c r="E4555" s="2" t="s">
-        <v>2246</v>
+      <c r="C4555" s="3" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="4556" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4556" s="2"/>
-      <c r="E4556" s="2" t="s">
-        <v>2247</v>
+      <c r="D4556" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="4557" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4557" s="2"/>
-      <c r="E4557" s="2" t="s">
-        <v>2248</v>
+      <c r="D4557" s="3" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="4558" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4558" s="3" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4559" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4559" s="3" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
     </row>
     <row r="4560" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4560" s="3" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="4561" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4560" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="4561" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4561" s="2" t="s">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="4562" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4562" s="2"/>
-      <c r="E4562" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="4563" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4563" s="3" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="4564" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4564" s="3" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="4565" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4565" s="3" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="4566" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4566" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="4567" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4567" s="2" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="4568" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4568" s="3" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="4569" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4569" s="3" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="4570" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4570" s="3" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="4571" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4571" s="3" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="4572" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4572" s="3" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="4573" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4573" s="2" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="4574" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4574" s="3" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="4575" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4575" s="3" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="4576" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4576" s="3" t="s">
-        <v>883</v>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4562" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4562" s="2" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="4563" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4563" s="2"/>
+      <c r="E4563" s="2" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="4564" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4564" s="2" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="4565" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4565" s="2"/>
+      <c r="E4565" s="2" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="4566" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4566" s="2" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="4567" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4567" s="2"/>
+      <c r="E4567" s="2" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="4568" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4568" s="2" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="4569" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4569" s="2"/>
+      <c r="E4569" s="2" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="4570" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4570" s="2" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="4571" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4571" s="2"/>
+      <c r="E4571" s="2" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="4572" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4572" s="2" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="4573" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4573" s="2"/>
+      <c r="E4573" s="2" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="4574" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4574" s="2" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="4575" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4575" s="2"/>
+      <c r="E4575" s="2" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="4576" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4576" s="2" t="s">
+        <v>2237</v>
       </c>
     </row>
     <row r="4577" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4577" s="3" t="s">
-        <v>884</v>
+      <c r="D4577" s="2"/>
+      <c r="E4577" s="2" t="s">
+        <v>2238</v>
       </c>
     </row>
     <row r="4578" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4578" s="2" t="s">
-        <v>2250</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="4579" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4579" s="2"/>
-      <c r="E4579" s="3" t="s">
-        <v>1595</v>
+      <c r="E4579" s="2" t="s">
+        <v>2240</v>
       </c>
     </row>
     <row r="4580" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4580" s="2"/>
-      <c r="E4580" s="2" t="s">
-        <v>2251</v>
+      <c r="D4580" s="2" t="s">
+        <v>2241</v>
       </c>
     </row>
     <row r="4581" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4581" s="3" t="s">
-        <v>885</v>
+      <c r="D4581" s="2"/>
+      <c r="E4581" s="2" t="s">
+        <v>2242</v>
       </c>
     </row>
     <row r="4582" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4582" s="2" t="s">
-        <v>886</v>
+        <v>857</v>
       </c>
     </row>
     <row r="4583" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4583" s="3" t="s">
-        <v>887</v>
+      <c r="D4583" s="2"/>
+      <c r="E4583" s="2" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="4584" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4584" s="3" t="s">
-        <v>888</v>
+      <c r="D4584" s="2"/>
+      <c r="E4584" s="3" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="4585" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4585" s="3" t="s">
-        <v>889</v>
+      <c r="D4585" s="2"/>
+      <c r="E4585" s="2" t="s">
+        <v>2243</v>
       </c>
     </row>
     <row r="4586" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4586" s="3" t="s">
-        <v>890</v>
+      <c r="D4586" s="2"/>
+      <c r="E4586" s="3" t="s">
+        <v>2244</v>
       </c>
     </row>
     <row r="4587" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4587" s="2" t="s">
-        <v>891</v>
+      <c r="C4587" s="3" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="4588" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4588" s="2" t="s">
-        <v>2252</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4589" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4589" s="2"/>
-      <c r="E4589" s="2" t="s">
-        <v>2253</v>
+      <c r="D4589" s="3" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="4590" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4590" s="3" t="s">
-        <v>892</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4591" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4591" s="3" t="s">
-        <v>893</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4592" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4592" s="3" t="s">
-        <v>894</v>
+      <c r="D4592" s="2" t="s">
+        <v>2245</v>
       </c>
     </row>
     <row r="4593" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4593" s="3" t="s">
-        <v>895</v>
+      <c r="D4593" s="2"/>
+      <c r="E4593" s="2" t="s">
+        <v>2246</v>
       </c>
     </row>
     <row r="4594" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4594" s="3" t="s">
-        <v>896</v>
+      <c r="D4594" s="2"/>
+      <c r="E4594" s="2" t="s">
+        <v>2247</v>
       </c>
     </row>
     <row r="4595" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4595" s="3" t="s">
-        <v>897</v>
+      <c r="D4595" s="2"/>
+      <c r="E4595" s="2" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="4596" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4596" s="2" t="s">
-        <v>898</v>
+      <c r="D4596" s="3" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="4597" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4597" s="3" t="s">
-        <v>899</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4598" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4598" s="3" t="s">
-        <v>900</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4599" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4599" s="2" t="s">
-        <v>2254</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="4600" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4600" s="3" t="s">
-        <v>2255</v>
+      <c r="D4600" s="2"/>
+      <c r="E4600" s="2" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="4601" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4601" s="3" t="s">
-        <v>901</v>
+      <c r="D4601" s="3" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="4602" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4602" s="2" t="s">
-        <v>902</v>
+      <c r="D4602" s="3" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="4603" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4603" s="3" t="s">
-        <v>903</v>
+        <v>872</v>
       </c>
     </row>
     <row r="4604" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4604" s="2" t="s">
-        <v>2256</v>
+      <c r="C4604" s="3" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="4605" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4605" s="2" t="s">
-        <v>2257</v>
+      <c r="D4605" s="2" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="4606" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4606" s="2" t="s">
-        <v>2258</v>
+      <c r="D4606" s="3" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="4607" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4607" s="2" t="s">
-        <v>2259</v>
+      <c r="D4607" s="3" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="4608" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4608" s="2" t="s">
-        <v>2260</v>
+      <c r="D4608" s="3" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="4609" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4609" s="2" t="s">
-        <v>2261</v>
+      <c r="D4609" s="3" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="4610" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4610" s="2" t="s">
-        <v>2262</v>
+      <c r="C4610" s="3" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="4611" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4611" s="2" t="s">
-        <v>2263</v>
+      <c r="D4611" s="2" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="4612" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4612" s="3" t="s">
-        <v>2264</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4613" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4613" s="3" t="s">
-        <v>2265</v>
+      <c r="D4613" s="3" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="4614" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4614" s="3" t="s">
-        <v>904</v>
+      <c r="D4614" s="3" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="4615" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4615" s="2" t="s">
-        <v>905</v>
+      <c r="D4615" s="3" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="4616" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4616" s="3" t="s">
-        <v>906</v>
+      <c r="D4616" s="2" t="s">
+        <v>2250</v>
       </c>
     </row>
     <row r="4617" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4617" s="3" t="s">
-        <v>907</v>
+      <c r="D4617" s="2"/>
+      <c r="E4617" s="3" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="4618" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4618" s="3" t="s">
-        <v>908</v>
+      <c r="D4618" s="2"/>
+      <c r="E4618" s="2" t="s">
+        <v>2251</v>
       </c>
     </row>
     <row r="4619" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4619" s="2" t="s">
-        <v>909</v>
+      <c r="C4619" s="3" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="4620" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4620" s="3" t="s">
-        <v>910</v>
+      <c r="D4620" s="2" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="4621" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4621" s="3" t="s">
-        <v>911</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4622" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4622" s="3" t="s">
-        <v>912</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4623" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4623" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="4624" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4624" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="4625" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4625" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="4626" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4626" s="2" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="4627" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4627" s="2"/>
+      <c r="E4627" s="2" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="4628" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4628" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="4629" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4629" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="4630" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4630" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="4631" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4631" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="4632" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4632" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="4633" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4633" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4634" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4634" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="4635" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4635" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="4636" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4636" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4637" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4637" s="2" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="4638" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4638" s="3" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="4639" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4639" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="4640" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4640" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="4641" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4641" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4642" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4642" s="2" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="4643" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4643" s="2" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="4644" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4644" s="2" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="4645" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4645" s="2" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="4646" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4646" s="2" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="4647" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4647" s="2" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="4648" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4648" s="2" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="4649" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4649" s="2" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="4650" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4650" s="3" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="4651" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4651" s="3" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="4652" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4652" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="4653" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4653" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="4654" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4654" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="4655" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4655" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="4656" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4656" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="4657" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4657" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="4658" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4658" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="4659" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4659" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="4660" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4660" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="4661" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4661" s="3" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="4624" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4624" s="3" t="s">
+    <row r="4662" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4662" s="3" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="4625" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4625" s="3" t="s">
+    <row r="4663" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4663" s="3" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="4626" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4626" s="3" t="s">
+    <row r="4664" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4664" s="3" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="4627" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4627" s="3" t="s">
+    <row r="4665" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4665" s="3" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="4628" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4628" s="3" t="s">
+    <row r="4666" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4666" s="3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="4629" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4629" s="3" t="s">
+    <row r="4667" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4667" s="3" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="4630" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4630" s="3" t="s">
+    <row r="4668" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4668" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="4631" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4631" s="3" t="s">
+    <row r="4669" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4669" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="4632" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4632" s="3" t="s">
+    <row r="4670" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4670" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="4633" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4633" s="3" t="s">
+    <row r="4671" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4671" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="4634" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4634" s="3" t="s">
+    <row r="4672" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4672" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="4635" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4635" s="3" t="s">
+    <row r="4673" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4673" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="4636" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4636" s="3" t="s">
+    <row r="4674" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4674" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="4637" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4637" s="2" t="s">
+    <row r="4675" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4675" s="2" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="4638" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4638" s="2" t="s">
+    <row r="4676" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4676" s="2" t="s">
         <v>2267</v>
       </c>
     </row>
-    <row r="4639" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4639" s="3" t="s">
+    <row r="4677" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4677" s="3" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="4640" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4640" s="3" t="s">
+    <row r="4678" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4678" s="3" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="4641" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4641" s="3" t="s">
+    <row r="4679" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4679" s="3" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="4642" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4642" s="3" t="s">
+    <row r="4680" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4680" s="3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="4643" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4643" s="2" t="s">
+    <row r="4681" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4681" s="2" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="4644" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4644" s="3" t="s">
+    <row r="4682" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4682" s="3" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="4645" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4645" s="3" t="s">
+    <row r="4683" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4683" s="3" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="4646" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4646" s="2" t="s">
+    <row r="4684" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4684" s="2" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="4647" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4647" s="2" t="s">
+    <row r="4685" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4685" s="2" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="4648" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4648" s="3" t="s">
+    <row r="4686" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4686" s="3" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="4649" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4649" s="3" t="s">
+    <row r="4687" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4687" s="3" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="4650" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4650" s="2" t="s">
+    <row r="4688" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4688" s="2" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="4651" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4651" s="3" t="s">
+    <row r="4689" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4689" s="3" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="4652" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4652" s="3" t="s">
+    <row r="4690" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4690" s="3" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="4653" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4653" s="3" t="s">
+    <row r="4691" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4691" s="3" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="4654" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4654" s="3" t="s">
+    <row r="4692" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4692" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="4655" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4655" s="2" t="s">
+    <row r="4693" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4693" s="2" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="4656" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4656" s="3" t="s">
+    <row r="4694" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4694" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="4657" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4657" s="3" t="s">
+    <row r="4695" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4695" s="3" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="4658" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B4658" s="2" t="s">
+    <row r="4696" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B4696" s="2" t="s">
         <v>4537</v>
       </c>
     </row>
-    <row r="4659" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B4659" s="2"/>
-      <c r="C4659" s="2" t="s">
+    <row r="4697" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B4697" s="2"/>
+      <c r="C4697" s="2" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="4660" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4660" s="2" t="s">
+    <row r="4698" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4698" s="2" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="4661" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4661" s="2"/>
-      <c r="D4661" s="2" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="4662" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4662" s="2" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="4663" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4663" s="2"/>
-      <c r="D4663" s="2" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="4664" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4664" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="4665" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4665" s="2"/>
-      <c r="D4665" s="2" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="4666" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4666" s="2" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="4667" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4667" s="2"/>
-      <c r="D4667" s="2" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="4668" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4668" s="2" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="4669" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4669" s="2"/>
-      <c r="D4669" s="2" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="4670" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4670" s="2" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="4671" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4671" s="2"/>
-      <c r="D4671" s="2" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="4672" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4672" s="2" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="4673" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4673" s="2"/>
-      <c r="D4673" s="2" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="4674" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4674" s="2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="4675" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4675" s="2"/>
-      <c r="D4675" s="2" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="4676" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4676" s="2" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="4677" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4677" s="2"/>
-      <c r="D4677" s="2" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="4678" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4678" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="4679" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4679" s="2"/>
-      <c r="D4679" s="2" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="4680" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4680" s="2" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="4681" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4681" s="2"/>
-      <c r="D4681" s="2" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="4682" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4682" s="2" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="4683" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4683" s="2"/>
-      <c r="D4683" s="2" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="4684" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4684" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="4685" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4685" s="2"/>
-      <c r="D4685" s="2" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="4686" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4686" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="4687" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4687" s="2" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="4688" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4688" s="2" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="4689" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4689" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="4690" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4690" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="4691" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4691" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="4692" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4692" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="4693" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4693" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="4694" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4694" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="4695" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4695" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="4696" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4696" s="2" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="4697" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4697" s="2" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="4698" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4698" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="4699" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4699" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C4699" s="2"/>
       <c r="D4699" s="2" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="4700" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="4700" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="D4700" s="2" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="4701" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="4701" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4701" s="2"/>
       <c r="D4701" s="2" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="4702" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4702" s="2"/>
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="4702" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="D4702" s="2" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="4703" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="4703" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4703" s="2"/>
       <c r="D4703" s="2" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="4704" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4704" s="2"/>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="4704" spans="2:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="D4704" s="2" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="4705" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="4705" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4705" s="2"/>
       <c r="D4705" s="2" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="4706" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="4706" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="D4706" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="4707" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="4707" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4707" s="2"/>
       <c r="D4707" s="2" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="4708" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="4708" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="D4708" s="2" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="4709" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="4709" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4709" s="2"/>
       <c r="D4709" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="4710" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="4710" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="D4710" s="2" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="4711" spans="2:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="4711" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4711" s="2"/>
       <c r="D4711" s="2" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="4712" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4712" s="2" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="4713" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="4712" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4712" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="4713" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C4713" s="2"/>
       <c r="D4713" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="4714" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4714" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="4715" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4715" s="2"/>
+      <c r="D4715" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="4716" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4716" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="4717" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4717" s="2"/>
+      <c r="D4717" s="2" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="4718" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4718" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="4719" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4719" s="2"/>
+      <c r="D4719" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="4720" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4720" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="4721" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4721" s="2"/>
+      <c r="D4721" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="4722" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4722" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="4723" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4723" s="2"/>
+      <c r="D4723" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="4724" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4724" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4725" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4725" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4726" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4726" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="4727" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4727" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="4728" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4728" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="4729" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4729" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="4730" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4730" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="4731" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4731" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="4732" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4732" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="4733" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4733" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="4734" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4734" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4735" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4735" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="4736" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4736" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="4737" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4737" s="2"/>
+      <c r="D4737" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4738" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4738" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="4739" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4739" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="4740" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4740" s="2"/>
+      <c r="D4740" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="4741" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4741" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="4742" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4742" s="2"/>
+      <c r="D4742" s="2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="4743" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4743" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="4744" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4744" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="4745" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4745" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="4746" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4746" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="4747" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4747" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="4748" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4748" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4749" spans="3:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4749" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="4750" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4750" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="4751" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4751" s="2"/>
+      <c r="D4751" s="2" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="4714" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4714" s="2" t="s">
+    <row r="4752" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4752" s="2" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="4715" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4715" s="1" t="s">
+    <row r="4753" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4753" s="1" t="s">
         <v>4538</v>
       </c>
     </row>
-    <row r="4716" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4716" s="3" t="s">
+    <row r="4754" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4754" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4717" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4717" s="3" t="s">
+    <row r="4755" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4755" s="3" t="s">
         <v>4610</v>
       </c>
     </row>
-    <row r="4718" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4718" s="3" t="s">
+    <row r="4756" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4756" s="3" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="4719" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4719" s="3" t="s">
+    <row r="4757" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4757" s="3" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="4720" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4720" s="3" t="s">
+    <row r="4758" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4758" s="3" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="4721" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4721" s="3" t="s">
+    <row r="4759" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4759" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="4722" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4722" s="3" t="s">
+    <row r="4760" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4760" s="3" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="4723" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4723" s="3" t="s">
+    <row r="4761" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4761" s="3" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="4724" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4724" s="3" t="s">
+    <row r="4762" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4762" s="3" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="4725" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4725" s="3" t="s">
+    <row r="4763" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4763" s="3" t="s">
         <v>4611</v>
       </c>
     </row>
-    <row r="4726" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4726" s="3" t="s">
+    <row r="4764" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4764" s="3" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="4727" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4727" s="3" t="s">
+    <row r="4765" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4765" s="3" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="4728" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4728" s="3" t="s">
+    <row r="4766" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4766" s="3" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="4729" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4729" s="3" t="s">
+    <row r="4767" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4767" s="3" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="4730" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4730" s="3" t="s">
+    <row r="4768" spans="2:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4768" s="3" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="4731" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4731" s="3" t="s">
+    <row r="4769" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4769" s="3" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="4732" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4732" s="3" t="s">
+    <row r="4770" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4770" s="3" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="4733" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4733" s="3" t="s">
+    <row r="4771" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4771" s="3" t="s">
         <v>4612</v>
       </c>
     </row>
-    <row r="4734" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4734" s="3" t="s">
+    <row r="4772" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4772" s="3" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="4735" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4735" s="3" t="s">
+    <row r="4773" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4773" s="3" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="4736" spans="4:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4736" s="3" t="s">
+    <row r="4774" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4774" s="3" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="4737" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4737" s="3" t="s">
+    <row r="4775" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4775" s="3" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="4738" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4738" s="3" t="s">
+    <row r="4776" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4776" s="3" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="4739" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4739" s="3" t="s">
+    <row r="4777" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4777" s="3" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="4740" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4740" s="3" t="s">
+    <row r="4778" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4778" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="4741" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4741" s="3" t="s">
+    <row r="4779" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4779" s="3" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="4742" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4742" s="3" t="s">
+    <row r="4780" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4780" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="4743" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4743" s="3" t="s">
+    <row r="4781" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4781" s="3" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="4744" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4744" s="3" t="s">
+    <row r="4782" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4782" s="3" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="4745" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E4745" s="3" t="s">
+    <row r="4783" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E4783" s="3" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="4746" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4746" s="3" t="s">
+    <row r="4784" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4784" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4747" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4747" s="3" t="s">
+    <row r="4785" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4785" s="3" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="4748" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4748" s="3" t="s">
+    <row r="4786" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4786" s="3" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="4749" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4749" s="3" t="s">
+    <row r="4787" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4787" s="3" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="4750" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4750" s="3" t="s">
+    <row r="4788" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4788" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="4751" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4751" s="3" t="s">
+    <row r="4789" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4789" s="3" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="4752" spans="3:5" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4752" s="2" t="s">
+    <row r="4790" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4790" s="2" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="4753" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4753" s="2" t="s">
+    <row r="4791" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4791" s="2" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="4754" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4754" s="3" t="s">
+    <row r="4792" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4792" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="4755" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4755" s="3" t="s">
+    <row r="4793" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4793" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="4756" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4756" s="3" t="s">
+    <row r="4794" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4794" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="4757" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4757" s="3" t="s">
+    <row r="4795" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4795" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="4758" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4758" s="2" t="s">
+    <row r="4796" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4796" s="2" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="4759" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4759" s="2" t="s">
+    <row r="4797" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4797" s="2" t="s">
         <v>4613</v>
       </c>
     </row>
-    <row r="4760" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4760" s="2" t="s">
+    <row r="4798" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4798" s="2" t="s">
         <v>4614</v>
       </c>
     </row>
-    <row r="4761" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4761" s="2" t="s">
+    <row r="4799" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4799" s="2" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="4762" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4762" s="2" t="s">
+    <row r="4800" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4800" s="2" t="s">
         <v>4615</v>
       </c>
     </row>
-    <row r="4763" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4763" s="2" t="s">
+    <row r="4801" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4801" s="2" t="s">
         <v>4616</v>
       </c>
     </row>
-    <row r="4764" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4764" s="2" t="s">
+    <row r="4802" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4802" s="2" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="4765" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4765" s="2" t="s">
+    <row r="4803" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4803" s="2" t="s">
         <v>4617</v>
       </c>
     </row>
-    <row r="4766" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4766" s="2" t="s">
+    <row r="4804" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4804" s="2" t="s">
         <v>4618</v>
       </c>
     </row>
-    <row r="4767" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4767" s="2" t="s">
+    <row r="4805" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4805" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="4768" spans="4:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4768" s="3" t="s">
+    <row r="4806" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4806" s="3" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="4769" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4769" s="3" t="s">
+    <row r="4807" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4807" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="4770" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="C4770" s="2" t="s">
+    <row r="4808" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="C4808" s="2" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="4771" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4771" s="2" t="s">
+    <row r="4809" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4809" s="2" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="4772" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4772" s="2" t="s">
+    <row r="4810" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4810" s="2" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="4773" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4773" s="2" t="s">
+    <row r="4811" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4811" s="2" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="4774" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D4774" s="2" t="s">
+    <row r="4812" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="D4812" s="2" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="4775" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4775" s="1" t="s">
+    <row r="4813" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4813" s="1" t="s">
         <v>4619</v>
       </c>
     </row>
-    <row r="4776" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C4776" s="1" t="s">
+    <row r="4814" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C4814" s="1" t="s">
         <v>4620</v>
       </c>
     </row>

--- a/cbreader2X/nav/advance_nav.xlsx
+++ b/cbreader2X/nav/advance_nav.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF68D7-FCDA-4F30-B3F0-F925E38B936F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B3CA00-FAD0-4072-A657-35CB679D0C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4746" uniqueCount="4609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="4611">
   <si>
     <t>歷代藏經補輯</t>
   </si>
@@ -14546,6 +14546,14 @@
   <si>
     <t>GBa001 徑山集版本說明</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX 太虛大師全書（待續）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14944,10 +14952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4738"/>
+  <dimension ref="A1:F4740"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4678" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4688" sqref="A1:F4738"/>
+    <sheetView tabSelected="1" topLeftCell="A4726" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4739" sqref="B4739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
@@ -38740,6 +38748,16 @@
         <v>4456</v>
       </c>
     </row>
+    <row r="4739" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4739" s="1" t="s">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="4740" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C4740" s="1" t="s">
+        <v>4609</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38752,7 +38770,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
